--- a/state_results/Rivers/ManawatuatdsPNCCSTP_d4f1f382b6.xlsx
+++ b/state_results/Rivers/ManawatuatdsPNCCSTP_d4f1f382b6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U147"/>
+  <dimension ref="A1:U167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -894,13 +894,13 @@
         <v>1.45</v>
       </c>
       <c r="G6" t="n">
-        <v>1.59196879644791</v>
+        <v>1.71402632819381</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9.64841292041411</v>
       </c>
       <c r="I6" t="n">
-        <v>4.108</v>
+        <v>4.8</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -908,10 +908,10 @@
         <v>1.875</v>
       </c>
       <c r="M6" t="n">
-        <v>2.60558</v>
+        <v>2.624</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5884</v>
+        <v>3.9468</v>
       </c>
       <c r="O6" t="n">
         <v>1819264.388</v>
@@ -1871,10 +1871,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.576</v>
+        <v>0.5755</v>
       </c>
       <c r="G18" t="n">
-        <v>0.616472727272727</v>
+        <v>0.616445454545455</v>
       </c>
       <c r="H18" t="n">
         <v>1.32</v>
@@ -1885,13 +1885,13 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.478</v>
+        <v>0.4782</v>
       </c>
       <c r="M18" t="n">
         <v>0.8515</v>
       </c>
       <c r="N18" t="n">
-        <v>1.0415</v>
+        <v>1.04114</v>
       </c>
       <c r="O18" t="n">
         <v>1819264.388</v>
@@ -1948,10 +1948,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.576</v>
+        <v>0.5755</v>
       </c>
       <c r="G19" t="n">
-        <v>0.616472727272727</v>
+        <v>0.616445454545455</v>
       </c>
       <c r="H19" t="n">
         <v>1.32</v>
@@ -1962,13 +1962,13 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.478</v>
+        <v>0.4782</v>
       </c>
       <c r="M19" t="n">
         <v>0.8515</v>
       </c>
       <c r="N19" t="n">
-        <v>1.0415</v>
+        <v>1.04114</v>
       </c>
       <c r="O19" t="n">
         <v>1819264.388</v>
@@ -2421,13 +2421,13 @@
         <v>1.1</v>
       </c>
       <c r="G25" t="n">
-        <v>1.37010703403707</v>
+        <v>1.48182070716043</v>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>9.64841292041411</v>
       </c>
       <c r="I25" t="n">
-        <v>4.043</v>
+        <v>4.6</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -2438,7 +2438,7 @@
         <v>2.1128</v>
       </c>
       <c r="N25" t="n">
-        <v>3.4936</v>
+        <v>3.8164</v>
       </c>
       <c r="O25" t="n">
         <v>1819264.388</v>
@@ -3401,13 +3401,13 @@
         <v>0.645</v>
       </c>
       <c r="G37" t="n">
-        <v>0.669233333333333</v>
+        <v>0.669205</v>
       </c>
       <c r="H37" t="n">
         <v>1.34</v>
       </c>
       <c r="I37" t="n">
-        <v>1.1795</v>
+        <v>1.1794</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -3478,13 +3478,13 @@
         <v>0.645</v>
       </c>
       <c r="G38" t="n">
-        <v>0.669233333333333</v>
+        <v>0.669205</v>
       </c>
       <c r="H38" t="n">
         <v>1.34</v>
       </c>
       <c r="I38" t="n">
-        <v>1.1795</v>
+        <v>1.1794</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -4025,7 +4025,7 @@
         <v>0.8</v>
       </c>
       <c r="G45" t="n">
-        <v>1.03935381962991</v>
+        <v>1.03910184410257</v>
       </c>
       <c r="H45" t="n">
         <v>4.96</v>
@@ -4268,10 +4268,10 @@
         <v>230</v>
       </c>
       <c r="G48" t="n">
-        <v>1144.38144703104</v>
+        <v>1124.20832186581</v>
       </c>
       <c r="H48" t="n">
-        <v>12333.5098870905</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I48" t="n">
         <v>6685</v>
@@ -4353,10 +4353,10 @@
         <v>230</v>
       </c>
       <c r="G49" t="n">
-        <v>1144.38144703104</v>
+        <v>1124.20832186581</v>
       </c>
       <c r="H49" t="n">
-        <v>12333.5098870905</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I49" t="n">
         <v>6685</v>
@@ -4438,10 +4438,10 @@
         <v>230</v>
       </c>
       <c r="G50" t="n">
-        <v>1144.38144703104</v>
+        <v>1124.20832186581</v>
       </c>
       <c r="H50" t="n">
-        <v>12333.5098870905</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I50" t="n">
         <v>6685</v>
@@ -4523,10 +4523,10 @@
         <v>230</v>
       </c>
       <c r="G51" t="n">
-        <v>1144.38144703104</v>
+        <v>1124.20832186581</v>
       </c>
       <c r="H51" t="n">
-        <v>12333.5098870905</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I51" t="n">
         <v>6685</v>
@@ -5088,7 +5088,7 @@
         <v>1.34</v>
       </c>
       <c r="I58" t="n">
-        <v>1.1795</v>
+        <v>1.1794</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -5165,7 +5165,7 @@
         <v>1.34</v>
       </c>
       <c r="I59" t="n">
-        <v>1.1795</v>
+        <v>1.1794</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -5706,7 +5706,7 @@
         <v>0.75</v>
       </c>
       <c r="G66" t="n">
-        <v>1.01357311710239</v>
+        <v>1.01345847583946</v>
       </c>
       <c r="H66" t="n">
         <v>4.96</v>
@@ -5949,10 +5949,10 @@
         <v>260</v>
       </c>
       <c r="G69" t="n">
-        <v>1179.44924364121</v>
+        <v>1159.27611847598</v>
       </c>
       <c r="H69" t="n">
-        <v>12333.5098870905</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I69" t="n">
         <v>6685</v>
@@ -6034,10 +6034,10 @@
         <v>260</v>
       </c>
       <c r="G70" t="n">
-        <v>1179.44924364121</v>
+        <v>1159.27611847598</v>
       </c>
       <c r="H70" t="n">
-        <v>12333.5098870905</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I70" t="n">
         <v>6685</v>
@@ -6119,10 +6119,10 @@
         <v>260</v>
       </c>
       <c r="G71" t="n">
-        <v>1179.44924364121</v>
+        <v>1159.27611847598</v>
       </c>
       <c r="H71" t="n">
-        <v>12333.5098870905</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I71" t="n">
         <v>6685</v>
@@ -6204,10 +6204,10 @@
         <v>260</v>
       </c>
       <c r="G72" t="n">
-        <v>1179.44924364121</v>
+        <v>1159.27611847598</v>
       </c>
       <c r="H72" t="n">
-        <v>12333.5098870905</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I72" t="n">
         <v>6685</v>
@@ -6763,7 +6763,7 @@
         <v>0.705</v>
       </c>
       <c r="G79" t="n">
-        <v>0.717033333333333</v>
+        <v>0.717035</v>
       </c>
       <c r="H79" t="n">
         <v>1.34</v>
@@ -6774,7 +6774,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.528</v>
+        <v>0.5277500000000001</v>
       </c>
       <c r="M79" t="n">
         <v>0.99</v>
@@ -6840,7 +6840,7 @@
         <v>0.705</v>
       </c>
       <c r="G80" t="n">
-        <v>0.717033333333333</v>
+        <v>0.717035</v>
       </c>
       <c r="H80" t="n">
         <v>1.34</v>
@@ -6851,7 +6851,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.528</v>
+        <v>0.5277500000000001</v>
       </c>
       <c r="M80" t="n">
         <v>0.99</v>
@@ -7387,7 +7387,7 @@
         <v>0.645</v>
       </c>
       <c r="G87" t="n">
-        <v>0.867000012671894</v>
+        <v>0.866852384785111</v>
       </c>
       <c r="H87" t="n">
         <v>3.5</v>
@@ -7630,10 +7630,10 @@
         <v>360</v>
       </c>
       <c r="G90" t="n">
-        <v>1234.00886622511</v>
+        <v>1213.12791210671</v>
       </c>
       <c r="H90" t="n">
-        <v>12333.5098870905</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I90" t="n">
         <v>6955</v>
@@ -7715,10 +7715,10 @@
         <v>360</v>
       </c>
       <c r="G91" t="n">
-        <v>1234.00886622511</v>
+        <v>1213.12791210671</v>
       </c>
       <c r="H91" t="n">
-        <v>12333.5098870905</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I91" t="n">
         <v>6955</v>
@@ -7800,10 +7800,10 @@
         <v>360</v>
       </c>
       <c r="G92" t="n">
-        <v>1234.00886622511</v>
+        <v>1213.12791210671</v>
       </c>
       <c r="H92" t="n">
-        <v>12333.5098870905</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I92" t="n">
         <v>6955</v>
@@ -7885,10 +7885,10 @@
         <v>360</v>
       </c>
       <c r="G93" t="n">
-        <v>1234.00886622511</v>
+        <v>1213.12791210671</v>
       </c>
       <c r="H93" t="n">
-        <v>12333.5098870905</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I93" t="n">
         <v>6955</v>
@@ -9068,7 +9068,7 @@
         <v>0.395</v>
       </c>
       <c r="G108" t="n">
-        <v>0.758351865462405</v>
+        <v>0.7581933021766</v>
       </c>
       <c r="H108" t="n">
         <v>3.5</v>
@@ -9311,13 +9311,13 @@
         <v>440</v>
       </c>
       <c r="G111" t="n">
-        <v>1903.70282500979</v>
+        <v>1596.47417087795</v>
       </c>
       <c r="H111" t="n">
-        <v>26479.5556507268</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I111" t="n">
-        <v>10061.39707</v>
+        <v>9997.52889</v>
       </c>
       <c r="J111" t="n">
         <v>38.5964912280702</v>
@@ -9396,13 +9396,13 @@
         <v>440</v>
       </c>
       <c r="G112" t="n">
-        <v>1903.70282500979</v>
+        <v>1596.47417087795</v>
       </c>
       <c r="H112" t="n">
-        <v>26479.5556507268</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I112" t="n">
-        <v>10061.39707</v>
+        <v>9997.52889</v>
       </c>
       <c r="J112" t="n">
         <v>38.5964912280702</v>
@@ -9481,13 +9481,13 @@
         <v>440</v>
       </c>
       <c r="G113" t="n">
-        <v>1903.70282500979</v>
+        <v>1596.47417087795</v>
       </c>
       <c r="H113" t="n">
-        <v>26479.5556507268</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I113" t="n">
-        <v>10061.39707</v>
+        <v>9997.52889</v>
       </c>
       <c r="J113" t="n">
         <v>38.5964912280702</v>
@@ -9566,13 +9566,13 @@
         <v>440</v>
       </c>
       <c r="G114" t="n">
-        <v>1903.70282500979</v>
+        <v>1596.47417087795</v>
       </c>
       <c r="H114" t="n">
-        <v>26479.5556507268</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I114" t="n">
-        <v>10061.39707</v>
+        <v>9997.52889</v>
       </c>
       <c r="J114" t="n">
         <v>38.5964912280702</v>
@@ -10749,7 +10749,7 @@
         <v>0.32</v>
       </c>
       <c r="G129" t="n">
-        <v>0.711959198672854</v>
+        <v>0.711784455459927</v>
       </c>
       <c r="H129" t="n">
         <v>3.5</v>
@@ -10992,13 +10992,13 @@
         <v>465</v>
       </c>
       <c r="G132" t="n">
-        <v>2073.51829354411</v>
+        <v>1771.58668517315</v>
       </c>
       <c r="H132" t="n">
-        <v>26479.5556507268</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I132" t="n">
-        <v>10033.59729</v>
+        <v>9974.64205</v>
       </c>
       <c r="J132" t="n">
         <v>43.1034482758621</v>
@@ -11077,13 +11077,13 @@
         <v>465</v>
       </c>
       <c r="G133" t="n">
-        <v>2073.51829354411</v>
+        <v>1771.58668517315</v>
       </c>
       <c r="H133" t="n">
-        <v>26479.5556507268</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I133" t="n">
-        <v>10033.59729</v>
+        <v>9974.64205</v>
       </c>
       <c r="J133" t="n">
         <v>43.1034482758621</v>
@@ -11162,13 +11162,13 @@
         <v>465</v>
       </c>
       <c r="G134" t="n">
-        <v>2073.51829354411</v>
+        <v>1771.58668517315</v>
       </c>
       <c r="H134" t="n">
-        <v>26479.5556507268</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I134" t="n">
-        <v>10033.59729</v>
+        <v>9974.64205</v>
       </c>
       <c r="J134" t="n">
         <v>43.1034482758621</v>
@@ -11247,13 +11247,13 @@
         <v>465</v>
       </c>
       <c r="G135" t="n">
-        <v>2073.51829354411</v>
+        <v>1771.58668517315</v>
       </c>
       <c r="H135" t="n">
-        <v>26479.5556507268</v>
+        <v>11218.0644260486</v>
       </c>
       <c r="I135" t="n">
-        <v>10033.59729</v>
+        <v>9974.64205</v>
       </c>
       <c r="J135" t="n">
         <v>43.1034482758621</v>
@@ -12242,6 +12242,1606 @@
         </is>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0.3688</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P148" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.681292137337748</v>
+      </c>
+      <c r="H149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="N149" t="n">
+        <v>2.0802</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P149" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.0234655172413793</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.0412</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0.03164</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.03858</v>
+      </c>
+      <c r="O150" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P150" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0225</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.0234655172413793</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0.0412</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>0.0205</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0.03164</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.03858</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P151" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>400</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1410.71959913725</v>
+      </c>
+      <c r="H152" t="n">
+        <v>10157.7367499604</v>
+      </c>
+      <c r="I152" t="n">
+        <v>8984.799999999999</v>
+      </c>
+      <c r="J152" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="K152" t="n">
+        <v>65.51724137931031</v>
+      </c>
+      <c r="L152" t="n">
+        <v>360</v>
+      </c>
+      <c r="M152" t="n">
+        <v>2128</v>
+      </c>
+      <c r="N152" t="n">
+        <v>5532</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P152" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>400</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1410.71959913725</v>
+      </c>
+      <c r="H153" t="n">
+        <v>10157.7367499604</v>
+      </c>
+      <c r="I153" t="n">
+        <v>8984.799999999999</v>
+      </c>
+      <c r="J153" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="K153" t="n">
+        <v>65.51724137931031</v>
+      </c>
+      <c r="L153" t="n">
+        <v>360</v>
+      </c>
+      <c r="M153" t="n">
+        <v>2128</v>
+      </c>
+      <c r="N153" t="n">
+        <v>5532</v>
+      </c>
+      <c r="O153" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P153" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>400</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1410.71959913725</v>
+      </c>
+      <c r="H154" t="n">
+        <v>10157.7367499604</v>
+      </c>
+      <c r="I154" t="n">
+        <v>8984.799999999999</v>
+      </c>
+      <c r="J154" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="K154" t="n">
+        <v>65.51724137931031</v>
+      </c>
+      <c r="L154" t="n">
+        <v>360</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2128</v>
+      </c>
+      <c r="N154" t="n">
+        <v>5532</v>
+      </c>
+      <c r="O154" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P154" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>400</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1410.71959913725</v>
+      </c>
+      <c r="H155" t="n">
+        <v>10157.7367499604</v>
+      </c>
+      <c r="I155" t="n">
+        <v>8984.799999999999</v>
+      </c>
+      <c r="J155" t="n">
+        <v>37.9310344827586</v>
+      </c>
+      <c r="K155" t="n">
+        <v>65.51724137931031</v>
+      </c>
+      <c r="L155" t="n">
+        <v>360</v>
+      </c>
+      <c r="M155" t="n">
+        <v>2128</v>
+      </c>
+      <c r="N155" t="n">
+        <v>5532</v>
+      </c>
+      <c r="O155" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P155" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>83.64</v>
+      </c>
+      <c r="G156" t="n">
+        <v>85.59399999999999</v>
+      </c>
+      <c r="H156" t="n">
+        <v>101.33</v>
+      </c>
+      <c r="I156" t="n">
+        <v>101.33</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>83.64</v>
+      </c>
+      <c r="M156" t="n">
+        <v>96.6645</v>
+      </c>
+      <c r="N156" t="n">
+        <v>101.33</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P156" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0.15942</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.188419502977187</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0.796138200862211</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0.52938</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>0.17873</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0.31521</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.43289</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P157" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0.15942</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.188419502977187</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0.796138200862211</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0.52938</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>0.17873</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0.31521</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.43289</v>
+      </c>
+      <c r="O158" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P158" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.432327586206897</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>0.2435</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0.7442800000000001</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.89872</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P159" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.432327586206897</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>0.2435</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.7442800000000001</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.89872</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P160" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G161" t="n">
+        <v>4.334</v>
+      </c>
+      <c r="H161" t="n">
+        <v>6.187</v>
+      </c>
+      <c r="I161" t="n">
+        <v>6.187</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M161" t="n">
+        <v>5.71905</v>
+      </c>
+      <c r="N161" t="n">
+        <v>6.187</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P161" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.6885</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.701931034482759</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1.1086</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0.88832</v>
+      </c>
+      <c r="N162" t="n">
+        <v>1.0672</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P162" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.6885</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.701931034482759</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1.1086</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0.88832</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1.0672</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P163" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.996896551724138</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1.2764</v>
+      </c>
+      <c r="N164" t="n">
+        <v>1.4072</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P164" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.996896551724138</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="M165" t="n">
+        <v>1.2764</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1.4072</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P165" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.116913793103448</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0.3828</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="M166" t="n">
+        <v>0.16776</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0.28334</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P166" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Manawatu at d/s PNCC STP</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.116913793103448</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0.3828</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="M167" t="n">
+        <v>0.16776</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.28334</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1819264.388</v>
+      </c>
+      <c r="P167" t="n">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManawatuatdsPNCCSTP_d4f1f382b6.xlsx
+++ b/state_results/Rivers/ManawatuatdsPNCCSTP_d4f1f382b6.xlsx
@@ -894,13 +894,13 @@
         <v>1.45</v>
       </c>
       <c r="G6" t="n">
-        <v>1.71402632819381</v>
+        <v>1.59606024364599</v>
       </c>
       <c r="H6" t="n">
-        <v>9.64841292041411</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.8</v>
+        <v>4.108</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -911,7 +911,7 @@
         <v>2.624</v>
       </c>
       <c r="N6" t="n">
-        <v>3.9468</v>
+        <v>3.5884</v>
       </c>
       <c r="O6" t="n">
         <v>1819264.388</v>
@@ -2421,13 +2421,13 @@
         <v>1.1</v>
       </c>
       <c r="G25" t="n">
-        <v>1.48182070716043</v>
+        <v>1.37385174842175</v>
       </c>
       <c r="H25" t="n">
-        <v>9.64841292041411</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>4.6</v>
+        <v>4.043</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -2438,7 +2438,7 @@
         <v>2.1128</v>
       </c>
       <c r="N25" t="n">
-        <v>3.8164</v>
+        <v>3.4936</v>
       </c>
       <c r="O25" t="n">
         <v>1819264.388</v>
@@ -4268,10 +4268,10 @@
         <v>230</v>
       </c>
       <c r="G48" t="n">
-        <v>1124.20832186581</v>
+        <v>1149.49210897195</v>
       </c>
       <c r="H48" t="n">
-        <v>11218.0644260486</v>
+        <v>12313.3666230118</v>
       </c>
       <c r="I48" t="n">
         <v>6685</v>
@@ -4353,10 +4353,10 @@
         <v>230</v>
       </c>
       <c r="G49" t="n">
-        <v>1124.20832186581</v>
+        <v>1149.49210897195</v>
       </c>
       <c r="H49" t="n">
-        <v>11218.0644260486</v>
+        <v>12313.3666230118</v>
       </c>
       <c r="I49" t="n">
         <v>6685</v>
@@ -4438,10 +4438,10 @@
         <v>230</v>
       </c>
       <c r="G50" t="n">
-        <v>1124.20832186581</v>
+        <v>1149.49210897195</v>
       </c>
       <c r="H50" t="n">
-        <v>11218.0644260486</v>
+        <v>12313.3666230118</v>
       </c>
       <c r="I50" t="n">
         <v>6685</v>
@@ -4523,10 +4523,10 @@
         <v>230</v>
       </c>
       <c r="G51" t="n">
-        <v>1124.20832186581</v>
+        <v>1149.49210897195</v>
       </c>
       <c r="H51" t="n">
-        <v>11218.0644260486</v>
+        <v>12313.3666230118</v>
       </c>
       <c r="I51" t="n">
         <v>6685</v>
@@ -5949,10 +5949,10 @@
         <v>260</v>
       </c>
       <c r="G69" t="n">
-        <v>1159.27611847598</v>
+        <v>1184.55990558212</v>
       </c>
       <c r="H69" t="n">
-        <v>11218.0644260486</v>
+        <v>12313.3666230118</v>
       </c>
       <c r="I69" t="n">
         <v>6685</v>
@@ -6034,10 +6034,10 @@
         <v>260</v>
       </c>
       <c r="G70" t="n">
-        <v>1159.27611847598</v>
+        <v>1184.55990558212</v>
       </c>
       <c r="H70" t="n">
-        <v>11218.0644260486</v>
+        <v>12313.3666230118</v>
       </c>
       <c r="I70" t="n">
         <v>6685</v>
@@ -6119,10 +6119,10 @@
         <v>260</v>
       </c>
       <c r="G71" t="n">
-        <v>1159.27611847598</v>
+        <v>1184.55990558212</v>
       </c>
       <c r="H71" t="n">
-        <v>11218.0644260486</v>
+        <v>12313.3666230118</v>
       </c>
       <c r="I71" t="n">
         <v>6685</v>
@@ -6204,10 +6204,10 @@
         <v>260</v>
       </c>
       <c r="G72" t="n">
-        <v>1159.27611847598</v>
+        <v>1184.55990558212</v>
       </c>
       <c r="H72" t="n">
-        <v>11218.0644260486</v>
+        <v>12313.3666230118</v>
       </c>
       <c r="I72" t="n">
         <v>6685</v>
@@ -7630,10 +7630,10 @@
         <v>360</v>
       </c>
       <c r="G90" t="n">
-        <v>1213.12791210671</v>
+        <v>1239.29884963764</v>
       </c>
       <c r="H90" t="n">
-        <v>11218.0644260486</v>
+        <v>12313.3666230118</v>
       </c>
       <c r="I90" t="n">
         <v>6955</v>
@@ -7715,10 +7715,10 @@
         <v>360</v>
       </c>
       <c r="G91" t="n">
-        <v>1213.12791210671</v>
+        <v>1239.29884963764</v>
       </c>
       <c r="H91" t="n">
-        <v>11218.0644260486</v>
+        <v>12313.3666230118</v>
       </c>
       <c r="I91" t="n">
         <v>6955</v>
@@ -7800,10 +7800,10 @@
         <v>360</v>
       </c>
       <c r="G92" t="n">
-        <v>1213.12791210671</v>
+        <v>1239.29884963764</v>
       </c>
       <c r="H92" t="n">
-        <v>11218.0644260486</v>
+        <v>12313.3666230118</v>
       </c>
       <c r="I92" t="n">
         <v>6955</v>
@@ -7885,10 +7885,10 @@
         <v>360</v>
       </c>
       <c r="G93" t="n">
-        <v>1213.12791210671</v>
+        <v>1239.29884963764</v>
       </c>
       <c r="H93" t="n">
-        <v>11218.0644260486</v>
+        <v>12313.3666230118</v>
       </c>
       <c r="I93" t="n">
         <v>6955</v>
@@ -9311,13 +9311,13 @@
         <v>440</v>
       </c>
       <c r="G111" t="n">
-        <v>1596.47417087795</v>
+        <v>1685.0829435483</v>
       </c>
       <c r="H111" t="n">
-        <v>11218.0644260486</v>
+        <v>13716.6933529078</v>
       </c>
       <c r="I111" t="n">
-        <v>9997.52889</v>
+        <v>10270.48407</v>
       </c>
       <c r="J111" t="n">
         <v>38.5964912280702</v>
@@ -9396,13 +9396,13 @@
         <v>440</v>
       </c>
       <c r="G112" t="n">
-        <v>1596.47417087795</v>
+        <v>1685.0829435483</v>
       </c>
       <c r="H112" t="n">
-        <v>11218.0644260486</v>
+        <v>13716.6933529078</v>
       </c>
       <c r="I112" t="n">
-        <v>9997.52889</v>
+        <v>10270.48407</v>
       </c>
       <c r="J112" t="n">
         <v>38.5964912280702</v>
@@ -9481,13 +9481,13 @@
         <v>440</v>
       </c>
       <c r="G113" t="n">
-        <v>1596.47417087795</v>
+        <v>1685.0829435483</v>
       </c>
       <c r="H113" t="n">
-        <v>11218.0644260486</v>
+        <v>13716.6933529078</v>
       </c>
       <c r="I113" t="n">
-        <v>9997.52889</v>
+        <v>10270.48407</v>
       </c>
       <c r="J113" t="n">
         <v>38.5964912280702</v>
@@ -9566,13 +9566,13 @@
         <v>440</v>
       </c>
       <c r="G114" t="n">
-        <v>1596.47417087795</v>
+        <v>1685.0829435483</v>
       </c>
       <c r="H114" t="n">
-        <v>11218.0644260486</v>
+        <v>13716.6933529078</v>
       </c>
       <c r="I114" t="n">
-        <v>9997.52889</v>
+        <v>10270.48407</v>
       </c>
       <c r="J114" t="n">
         <v>38.5964912280702</v>
@@ -10992,13 +10992,13 @@
         <v>465</v>
       </c>
       <c r="G132" t="n">
-        <v>1771.58668517315</v>
+        <v>1858.66772038367</v>
       </c>
       <c r="H132" t="n">
-        <v>11218.0644260486</v>
+        <v>13716.6933529078</v>
       </c>
       <c r="I132" t="n">
-        <v>9974.64205</v>
+        <v>10226.60068</v>
       </c>
       <c r="J132" t="n">
         <v>43.1034482758621</v>
@@ -11077,13 +11077,13 @@
         <v>465</v>
       </c>
       <c r="G133" t="n">
-        <v>1771.58668517315</v>
+        <v>1858.66772038367</v>
       </c>
       <c r="H133" t="n">
-        <v>11218.0644260486</v>
+        <v>13716.6933529078</v>
       </c>
       <c r="I133" t="n">
-        <v>9974.64205</v>
+        <v>10226.60068</v>
       </c>
       <c r="J133" t="n">
         <v>43.1034482758621</v>
@@ -11162,13 +11162,13 @@
         <v>465</v>
       </c>
       <c r="G134" t="n">
-        <v>1771.58668517315</v>
+        <v>1858.66772038367</v>
       </c>
       <c r="H134" t="n">
-        <v>11218.0644260486</v>
+        <v>13716.6933529078</v>
       </c>
       <c r="I134" t="n">
-        <v>9974.64205</v>
+        <v>10226.60068</v>
       </c>
       <c r="J134" t="n">
         <v>43.1034482758621</v>
@@ -11247,13 +11247,13 @@
         <v>465</v>
       </c>
       <c r="G135" t="n">
-        <v>1771.58668517315</v>
+        <v>1858.66772038367</v>
       </c>
       <c r="H135" t="n">
-        <v>11218.0644260486</v>
+        <v>13716.6933529078</v>
       </c>
       <c r="I135" t="n">
-        <v>9974.64205</v>
+        <v>10226.60068</v>
       </c>
       <c r="J135" t="n">
         <v>43.1034482758621</v>
@@ -12592,10 +12592,10 @@
         <v>400</v>
       </c>
       <c r="G152" t="n">
-        <v>1410.71959913725</v>
+        <v>1472.08091987772</v>
       </c>
       <c r="H152" t="n">
-        <v>10157.7367499604</v>
+        <v>13716.6933529078</v>
       </c>
       <c r="I152" t="n">
         <v>8984.799999999999</v>
@@ -12677,10 +12677,10 @@
         <v>400</v>
       </c>
       <c r="G153" t="n">
-        <v>1410.71959913725</v>
+        <v>1472.08091987772</v>
       </c>
       <c r="H153" t="n">
-        <v>10157.7367499604</v>
+        <v>13716.6933529078</v>
       </c>
       <c r="I153" t="n">
         <v>8984.799999999999</v>
@@ -12762,10 +12762,10 @@
         <v>400</v>
       </c>
       <c r="G154" t="n">
-        <v>1410.71959913725</v>
+        <v>1472.08091987772</v>
       </c>
       <c r="H154" t="n">
-        <v>10157.7367499604</v>
+        <v>13716.6933529078</v>
       </c>
       <c r="I154" t="n">
         <v>8984.799999999999</v>
@@ -12847,10 +12847,10 @@
         <v>400</v>
       </c>
       <c r="G155" t="n">
-        <v>1410.71959913725</v>
+        <v>1472.08091987772</v>
       </c>
       <c r="H155" t="n">
-        <v>10157.7367499604</v>
+        <v>13716.6933529078</v>
       </c>
       <c r="I155" t="n">
         <v>8984.799999999999</v>

--- a/state_results/Rivers/ManawatuatdsPNCCSTP_d4f1f382b6.xlsx
+++ b/state_results/Rivers/ManawatuatdsPNCCSTP_d4f1f382b6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="74">
   <si>
     <t>site name</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Impact</t>
@@ -590,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U167"/>
+  <dimension ref="A1:U187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,7 +678,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -690,7 +693,7 @@
         <v>358.25</v>
       </c>
       <c r="L2">
-        <v>32</v>
+        <v>37.5</v>
       </c>
       <c r="M2">
         <v>163.062</v>
@@ -705,19 +708,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -734,7 +737,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>17.5</v>
@@ -749,7 +752,7 @@
         <v>356</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>62.5</v>
       </c>
       <c r="M3">
         <v>158.2</v>
@@ -764,19 +767,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -793,7 +796,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>33</v>
@@ -808,7 +811,7 @@
         <v>362.75</v>
       </c>
       <c r="L4">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="M4">
         <v>167.45</v>
@@ -823,19 +826,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -852,7 +855,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>37.75</v>
@@ -867,7 +870,7 @@
         <v>324.5</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M5">
         <v>125.3</v>
@@ -882,19 +885,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -911,28 +914,28 @@
         <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>1.45</v>
       </c>
       <c r="G6">
-        <v>1.68567953367132</v>
+        <v>1.60289497517241</v>
       </c>
       <c r="H6">
-        <v>8.11768601619991</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>4.8</v>
+        <v>4.108</v>
       </c>
       <c r="L6">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="M6">
         <v>2.624</v>
       </c>
       <c r="N6">
-        <v>3.9468</v>
+        <v>3.69728</v>
       </c>
       <c r="O6">
         <v>1819264.388</v>
@@ -941,19 +944,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -970,7 +973,7 @@
         <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>0.018</v>
@@ -1000,19 +1003,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1029,7 +1032,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <v>0.018</v>
@@ -1059,19 +1062,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1088,7 +1091,7 @@
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <v>160</v>
@@ -1109,7 +1112,7 @@
         <v>36.3636363636364</v>
       </c>
       <c r="L9">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M9">
         <v>975.05</v>
@@ -1124,19 +1127,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1153,7 +1156,7 @@
         <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>160</v>
@@ -1174,7 +1177,7 @@
         <v>36.3636363636364</v>
       </c>
       <c r="L10">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M10">
         <v>975.05</v>
@@ -1189,19 +1192,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1218,7 +1221,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11">
         <v>160</v>
@@ -1239,7 +1242,7 @@
         <v>36.3636363636364</v>
       </c>
       <c r="L11">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M11">
         <v>975.05</v>
@@ -1254,19 +1257,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1283,7 +1286,7 @@
         <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12">
         <v>160</v>
@@ -1304,7 +1307,7 @@
         <v>36.3636363636364</v>
       </c>
       <c r="L12">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M12">
         <v>975.05</v>
@@ -1319,19 +1322,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1348,7 +1351,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13">
         <v>91</v>
@@ -1378,16 +1381,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1404,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F14">
         <v>0.09297</v>
@@ -1419,7 +1422,7 @@
         <v>0.65443</v>
       </c>
       <c r="L14">
-        <v>0.14154</v>
+        <v>0.1333</v>
       </c>
       <c r="M14">
         <v>0.24107</v>
@@ -1434,19 +1437,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1463,7 +1466,7 @@
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F15">
         <v>0.09297</v>
@@ -1478,7 +1481,7 @@
         <v>0.65443</v>
       </c>
       <c r="L15">
-        <v>0.14154</v>
+        <v>0.1333</v>
       </c>
       <c r="M15">
         <v>0.24107</v>
@@ -1493,19 +1496,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1522,7 +1525,7 @@
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16">
         <v>0.409</v>
@@ -1537,7 +1540,7 @@
         <v>0.9625</v>
       </c>
       <c r="L16">
-        <v>0.1793</v>
+        <v>0.227</v>
       </c>
       <c r="M16">
         <v>0.69471</v>
@@ -1552,19 +1555,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1581,7 +1584,7 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17">
         <v>0.409</v>
@@ -1596,7 +1599,7 @@
         <v>0.9625</v>
       </c>
       <c r="L17">
-        <v>0.1793</v>
+        <v>0.227</v>
       </c>
       <c r="M17">
         <v>0.69471</v>
@@ -1611,19 +1614,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1637,7 +1640,7 @@
         <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F18">
         <v>0.5755</v>
@@ -1652,7 +1655,7 @@
         <v>1.1225</v>
       </c>
       <c r="L18">
-        <v>0.4782</v>
+        <v>0.48</v>
       </c>
       <c r="M18">
         <v>0.8515</v>
@@ -1667,19 +1670,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1693,7 +1696,7 @@
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>0.5755</v>
@@ -1708,7 +1711,7 @@
         <v>1.1225</v>
       </c>
       <c r="L19">
-        <v>0.4782</v>
+        <v>0.48</v>
       </c>
       <c r="M19">
         <v>0.8515</v>
@@ -1723,19 +1726,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1749,7 +1752,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20">
         <v>0.837</v>
@@ -1764,7 +1767,7 @@
         <v>1.35675</v>
       </c>
       <c r="L20">
-        <v>0.7445000000000001</v>
+        <v>0.758</v>
       </c>
       <c r="M20">
         <v>1.10195</v>
@@ -1779,19 +1782,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1805,7 +1808,7 @@
         <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>0.837</v>
@@ -1820,7 +1823,7 @@
         <v>1.35675</v>
       </c>
       <c r="L21">
-        <v>0.7445000000000001</v>
+        <v>0.758</v>
       </c>
       <c r="M21">
         <v>1.10195</v>
@@ -1835,19 +1838,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1861,7 +1864,7 @@
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22">
         <v>0.052</v>
@@ -1876,7 +1879,7 @@
         <v>0.1145</v>
       </c>
       <c r="L22">
-        <v>0.0345</v>
+        <v>0.039</v>
       </c>
       <c r="M22">
         <v>0.0713</v>
@@ -1891,19 +1894,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1917,7 +1920,7 @@
         <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23">
         <v>0.052</v>
@@ -1932,7 +1935,7 @@
         <v>0.1145</v>
       </c>
       <c r="L23">
-        <v>0.0345</v>
+        <v>0.039</v>
       </c>
       <c r="M23">
         <v>0.0713</v>
@@ -1947,19 +1950,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1976,7 +1979,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24">
         <v>36.5</v>
@@ -1991,7 +1994,7 @@
         <v>272.5</v>
       </c>
       <c r="L24">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M24">
         <v>104.25</v>
@@ -2006,19 +2009,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2035,28 +2038,28 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F25">
         <v>1.1</v>
       </c>
       <c r="G25">
-        <v>1.45587618336019</v>
+        <v>1.38010726541203</v>
       </c>
       <c r="H25">
-        <v>8.11768601619991</v>
+        <v>5</v>
       </c>
       <c r="I25">
-        <v>4.6</v>
+        <v>4.043</v>
       </c>
       <c r="L25">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="M25">
         <v>2.1128</v>
       </c>
       <c r="N25">
-        <v>3.8164</v>
+        <v>3.62357</v>
       </c>
       <c r="O25">
         <v>1819264.388</v>
@@ -2065,19 +2068,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2094,7 +2097,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26">
         <v>0.02</v>
@@ -2109,7 +2112,7 @@
         <v>0.048</v>
       </c>
       <c r="L26">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="M26">
         <v>0.0363</v>
@@ -2124,19 +2127,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2153,7 +2156,7 @@
         <v>52</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27">
         <v>0.02</v>
@@ -2168,7 +2171,7 @@
         <v>0.048</v>
       </c>
       <c r="L27">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="M27">
         <v>0.0363</v>
@@ -2183,19 +2186,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2212,7 +2215,7 @@
         <v>52</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28">
         <v>210</v>
@@ -2233,7 +2236,7 @@
         <v>38.9830508474576</v>
       </c>
       <c r="L28">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M28">
         <v>975.09</v>
@@ -2248,19 +2251,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2277,7 +2280,7 @@
         <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29">
         <v>210</v>
@@ -2298,7 +2301,7 @@
         <v>38.9830508474576</v>
       </c>
       <c r="L29">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M29">
         <v>975.09</v>
@@ -2313,19 +2316,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2342,7 +2345,7 @@
         <v>52</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F30">
         <v>210</v>
@@ -2363,7 +2366,7 @@
         <v>38.9830508474576</v>
       </c>
       <c r="L30">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M30">
         <v>975.09</v>
@@ -2378,19 +2381,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U30" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2407,7 +2410,7 @@
         <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31">
         <v>210</v>
@@ -2428,7 +2431,7 @@
         <v>38.9830508474576</v>
       </c>
       <c r="L31">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M31">
         <v>975.09</v>
@@ -2443,19 +2446,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2466,13 +2469,13 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
         <v>52</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F32">
         <v>91</v>
@@ -2487,7 +2490,7 @@
         <v>134</v>
       </c>
       <c r="L32">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M32">
         <v>119.0375</v>
@@ -2502,16 +2505,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2528,7 +2531,7 @@
         <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F33">
         <v>0.09258</v>
@@ -2543,7 +2546,7 @@
         <v>0.63454</v>
       </c>
       <c r="L33">
-        <v>0.16906</v>
+        <v>0.14584</v>
       </c>
       <c r="M33">
         <v>0.24698</v>
@@ -2558,19 +2561,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2587,7 +2590,7 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F34">
         <v>0.09258</v>
@@ -2602,7 +2605,7 @@
         <v>0.63454</v>
       </c>
       <c r="L34">
-        <v>0.16906</v>
+        <v>0.14584</v>
       </c>
       <c r="M34">
         <v>0.24698</v>
@@ -2617,19 +2620,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U34" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2646,7 +2649,7 @@
         <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F35">
         <v>0.42965</v>
@@ -2661,7 +2664,7 @@
         <v>0.981</v>
       </c>
       <c r="L35">
-        <v>0.1793</v>
+        <v>0.21665</v>
       </c>
       <c r="M35">
         <v>0.76645</v>
@@ -2676,19 +2679,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2705,7 +2708,7 @@
         <v>52</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F36">
         <v>0.42965</v>
@@ -2720,7 +2723,7 @@
         <v>0.981</v>
       </c>
       <c r="L36">
-        <v>0.1793</v>
+        <v>0.21665</v>
       </c>
       <c r="M36">
         <v>0.76645</v>
@@ -2735,19 +2738,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2761,7 +2764,7 @@
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F37">
         <v>0.645</v>
@@ -2776,7 +2779,7 @@
         <v>1.1794</v>
       </c>
       <c r="L37">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="M37">
         <v>0.961</v>
@@ -2791,19 +2794,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2817,7 +2820,7 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F38">
         <v>0.645</v>
@@ -2832,7 +2835,7 @@
         <v>1.1794</v>
       </c>
       <c r="L38">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="M38">
         <v>0.961</v>
@@ -2847,19 +2850,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2873,7 +2876,7 @@
         <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F39">
         <v>0.915</v>
@@ -2888,7 +2891,7 @@
         <v>1.3895</v>
       </c>
       <c r="L39">
-        <v>0.705</v>
+        <v>0.7635</v>
       </c>
       <c r="M39">
         <v>1.183</v>
@@ -2903,19 +2906,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2929,7 +2932,7 @@
         <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F40">
         <v>0.915</v>
@@ -2944,7 +2947,7 @@
         <v>1.3895</v>
       </c>
       <c r="L40">
-        <v>0.705</v>
+        <v>0.7635</v>
       </c>
       <c r="M40">
         <v>1.183</v>
@@ -2959,19 +2962,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2985,7 +2988,7 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F41">
         <v>0.0535</v>
@@ -3000,7 +3003,7 @@
         <v>0.1445</v>
       </c>
       <c r="L41">
-        <v>0.0345</v>
+        <v>0.044</v>
       </c>
       <c r="M41">
         <v>0.0746</v>
@@ -3015,19 +3018,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3041,7 +3044,7 @@
         <v>52</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F42">
         <v>0.0535</v>
@@ -3056,7 +3059,7 @@
         <v>0.1445</v>
       </c>
       <c r="L42">
-        <v>0.0345</v>
+        <v>0.044</v>
       </c>
       <c r="M42">
         <v>0.0746</v>
@@ -3071,19 +3074,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3100,7 +3103,7 @@
         <v>53</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43">
         <v>0.282</v>
@@ -3115,7 +3118,7 @@
         <v>0.667</v>
       </c>
       <c r="L43">
-        <v>0.2665</v>
+        <v>0.282</v>
       </c>
       <c r="M43">
         <v>0.54415</v>
@@ -3130,16 +3133,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3156,7 +3159,7 @@
         <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F44">
         <v>33</v>
@@ -3171,7 +3174,7 @@
         <v>217.25</v>
       </c>
       <c r="L44">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="M44">
         <v>102.65</v>
@@ -3186,19 +3189,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3215,13 +3218,13 @@
         <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F45">
         <v>0.8</v>
       </c>
       <c r="G45">
-        <v>1.03910184410257</v>
+        <v>1.03900932951529</v>
       </c>
       <c r="H45">
         <v>4.96</v>
@@ -3230,7 +3233,7 @@
         <v>3.466</v>
       </c>
       <c r="L45">
-        <v>1.515</v>
+        <v>1.19</v>
       </c>
       <c r="M45">
         <v>1.8</v>
@@ -3245,19 +3248,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3274,7 +3277,7 @@
         <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F46">
         <v>0.023</v>
@@ -3289,7 +3292,7 @@
         <v>0.051</v>
       </c>
       <c r="L46">
-        <v>0.0145</v>
+        <v>0.0165</v>
       </c>
       <c r="M46">
         <v>0.0383</v>
@@ -3304,19 +3307,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3333,7 +3336,7 @@
         <v>53</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <v>0.023</v>
@@ -3348,7 +3351,7 @@
         <v>0.051</v>
       </c>
       <c r="L47">
-        <v>0.0145</v>
+        <v>0.0165</v>
       </c>
       <c r="M47">
         <v>0.0383</v>
@@ -3363,19 +3366,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3392,16 +3395,16 @@
         <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F48">
         <v>230</v>
       </c>
       <c r="G48">
-        <v>1162.18349365076</v>
+        <v>1239.13413707272</v>
       </c>
       <c r="H48">
-        <v>12429.216217593</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I48">
         <v>6685</v>
@@ -3413,7 +3416,7 @@
         <v>44.0677966101695</v>
       </c>
       <c r="L48">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M48">
         <v>1403.9</v>
@@ -3428,19 +3431,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3457,16 +3460,16 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49">
         <v>230</v>
       </c>
       <c r="G49">
-        <v>1162.18349365076</v>
+        <v>1239.13413707272</v>
       </c>
       <c r="H49">
-        <v>12429.216217593</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I49">
         <v>6685</v>
@@ -3478,7 +3481,7 @@
         <v>44.0677966101695</v>
       </c>
       <c r="L49">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M49">
         <v>1403.9</v>
@@ -3493,19 +3496,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3522,16 +3525,16 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50">
         <v>230</v>
       </c>
       <c r="G50">
-        <v>1162.18349365076</v>
+        <v>1239.13413707272</v>
       </c>
       <c r="H50">
-        <v>12429.216217593</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I50">
         <v>6685</v>
@@ -3543,7 +3546,7 @@
         <v>44.0677966101695</v>
       </c>
       <c r="L50">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M50">
         <v>1403.9</v>
@@ -3558,19 +3561,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3587,16 +3590,16 @@
         <v>53</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F51">
         <v>230</v>
       </c>
       <c r="G51">
-        <v>1162.18349365076</v>
+        <v>1239.13413707272</v>
       </c>
       <c r="H51">
-        <v>12429.216217593</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I51">
         <v>6685</v>
@@ -3608,7 +3611,7 @@
         <v>44.0677966101695</v>
       </c>
       <c r="L51">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M51">
         <v>1403.9</v>
@@ -3623,19 +3626,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U51" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3652,7 +3655,7 @@
         <v>53</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52">
         <v>88.45999999999999</v>
@@ -3667,7 +3670,7 @@
         <v>134</v>
       </c>
       <c r="L52">
-        <v>84.73</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="M52">
         <v>119.0375</v>
@@ -3682,16 +3685,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3708,7 +3711,7 @@
         <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F53">
         <v>0.09535</v>
@@ -3723,7 +3726,7 @@
         <v>0.40612</v>
       </c>
       <c r="L53">
-        <v>0.1755</v>
+        <v>0.14584</v>
       </c>
       <c r="M53">
         <v>0.24087</v>
@@ -3738,19 +3741,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3767,7 +3770,7 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F54">
         <v>0.09535</v>
@@ -3782,7 +3785,7 @@
         <v>0.40612</v>
       </c>
       <c r="L54">
-        <v>0.1755</v>
+        <v>0.14584</v>
       </c>
       <c r="M54">
         <v>0.24087</v>
@@ -3797,19 +3800,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3826,7 +3829,7 @@
         <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F55">
         <v>0.48465</v>
@@ -3841,7 +3844,7 @@
         <v>0.9725</v>
       </c>
       <c r="L55">
-        <v>0.19865</v>
+        <v>0.2225</v>
       </c>
       <c r="M55">
         <v>0.76645</v>
@@ -3856,19 +3859,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3885,7 +3888,7 @@
         <v>53</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F56">
         <v>0.48465</v>
@@ -3900,7 +3903,7 @@
         <v>0.9725</v>
       </c>
       <c r="L56">
-        <v>0.19865</v>
+        <v>0.2225</v>
       </c>
       <c r="M56">
         <v>0.76645</v>
@@ -3915,19 +3918,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3944,7 +3947,7 @@
         <v>53</v>
       </c>
       <c r="E57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F57">
         <v>3.37</v>
@@ -3959,7 +3962,7 @@
         <v>8.26</v>
       </c>
       <c r="L57">
-        <v>3.185</v>
+        <v>3.37</v>
       </c>
       <c r="M57">
         <v>6.64965</v>
@@ -3974,16 +3977,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -3997,7 +4000,7 @@
         <v>53</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F58">
         <v>0.655</v>
@@ -4012,7 +4015,7 @@
         <v>1.1794</v>
       </c>
       <c r="L58">
-        <v>0.48</v>
+        <v>0.48065</v>
       </c>
       <c r="M58">
         <v>0.99</v>
@@ -4027,19 +4030,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4053,7 +4056,7 @@
         <v>53</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F59">
         <v>0.655</v>
@@ -4068,7 +4071,7 @@
         <v>1.1794</v>
       </c>
       <c r="L59">
-        <v>0.48</v>
+        <v>0.48065</v>
       </c>
       <c r="M59">
         <v>0.99</v>
@@ -4083,19 +4086,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4109,7 +4112,7 @@
         <v>53</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F60">
         <v>0.976</v>
@@ -4124,7 +4127,7 @@
         <v>1.595</v>
       </c>
       <c r="L60">
-        <v>0.7445000000000001</v>
+        <v>0.784</v>
       </c>
       <c r="M60">
         <v>1.313</v>
@@ -4139,19 +4142,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4165,7 +4168,7 @@
         <v>53</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F61">
         <v>0.976</v>
@@ -4180,7 +4183,7 @@
         <v>1.595</v>
       </c>
       <c r="L61">
-        <v>0.7445000000000001</v>
+        <v>0.784</v>
       </c>
       <c r="M61">
         <v>1.313</v>
@@ -4195,19 +4198,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4221,7 +4224,7 @@
         <v>53</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F62">
         <v>0.061</v>
@@ -4236,7 +4239,7 @@
         <v>0.3165</v>
       </c>
       <c r="L62">
-        <v>0.0455</v>
+        <v>0.055</v>
       </c>
       <c r="M62">
         <v>0.1101</v>
@@ -4251,19 +4254,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4277,7 +4280,7 @@
         <v>53</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F63">
         <v>0.061</v>
@@ -4292,7 +4295,7 @@
         <v>0.3165</v>
       </c>
       <c r="L63">
-        <v>0.0455</v>
+        <v>0.055</v>
       </c>
       <c r="M63">
         <v>0.1101</v>
@@ -4307,19 +4310,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4336,7 +4339,7 @@
         <v>54</v>
       </c>
       <c r="E64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F64">
         <v>0.282</v>
@@ -4351,7 +4354,7 @@
         <v>0.667</v>
       </c>
       <c r="L64">
-        <v>0.2665</v>
+        <v>0.282</v>
       </c>
       <c r="M64">
         <v>0.54835</v>
@@ -4366,16 +4369,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4392,7 +4395,7 @@
         <v>54</v>
       </c>
       <c r="E65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F65">
         <v>33</v>
@@ -4407,7 +4410,7 @@
         <v>227.75</v>
       </c>
       <c r="L65">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="M65">
         <v>136.75</v>
@@ -4422,19 +4425,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4451,13 +4454,13 @@
         <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F66">
         <v>0.75</v>
       </c>
       <c r="G66">
-        <v>1.01345847583946</v>
+        <v>1.01341353780158</v>
       </c>
       <c r="H66">
         <v>4.96</v>
@@ -4466,7 +4469,7 @@
         <v>3.466</v>
       </c>
       <c r="L66">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="M66">
         <v>1.8</v>
@@ -4481,19 +4484,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U66" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4510,7 +4513,7 @@
         <v>54</v>
       </c>
       <c r="E67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F67">
         <v>0.023</v>
@@ -4525,7 +4528,7 @@
         <v>0.049</v>
       </c>
       <c r="L67">
-        <v>0.0175</v>
+        <v>0.02</v>
       </c>
       <c r="M67">
         <v>0.0383</v>
@@ -4540,19 +4543,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U67" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4569,7 +4572,7 @@
         <v>54</v>
       </c>
       <c r="E68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F68">
         <v>0.023</v>
@@ -4584,7 +4587,7 @@
         <v>0.049</v>
       </c>
       <c r="L68">
-        <v>0.0175</v>
+        <v>0.02</v>
       </c>
       <c r="M68">
         <v>0.0383</v>
@@ -4599,19 +4602,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4628,16 +4631,16 @@
         <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F69">
         <v>260</v>
       </c>
       <c r="G69">
-        <v>1197.25129026093</v>
+        <v>1274.20193368289</v>
       </c>
       <c r="H69">
-        <v>12429.216217593</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I69">
         <v>6685</v>
@@ -4649,7 +4652,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L69">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M69">
         <v>1441</v>
@@ -4664,19 +4667,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U69" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4693,16 +4696,16 @@
         <v>54</v>
       </c>
       <c r="E70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F70">
         <v>260</v>
       </c>
       <c r="G70">
-        <v>1197.25129026093</v>
+        <v>1274.20193368289</v>
       </c>
       <c r="H70">
-        <v>12429.216217593</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I70">
         <v>6685</v>
@@ -4714,7 +4717,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L70">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M70">
         <v>1441</v>
@@ -4729,19 +4732,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U70" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4758,16 +4761,16 @@
         <v>54</v>
       </c>
       <c r="E71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F71">
         <v>260</v>
       </c>
       <c r="G71">
-        <v>1197.25129026093</v>
+        <v>1274.20193368289</v>
       </c>
       <c r="H71">
-        <v>12429.216217593</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I71">
         <v>6685</v>
@@ -4779,7 +4782,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L71">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M71">
         <v>1441</v>
@@ -4794,19 +4797,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U71" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4823,16 +4826,16 @@
         <v>54</v>
       </c>
       <c r="E72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F72">
         <v>260</v>
       </c>
       <c r="G72">
-        <v>1197.25129026093</v>
+        <v>1274.20193368289</v>
       </c>
       <c r="H72">
-        <v>12429.216217593</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I72">
         <v>6685</v>
@@ -4844,7 +4847,7 @@
         <v>49.1525423728814</v>
       </c>
       <c r="L72">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M72">
         <v>1441</v>
@@ -4859,19 +4862,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U72" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4888,7 +4891,7 @@
         <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F73">
         <v>81</v>
@@ -4918,16 +4921,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4944,7 +4947,7 @@
         <v>54</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F74">
         <v>0.11836</v>
@@ -4959,7 +4962,7 @@
         <v>0.52121</v>
       </c>
       <c r="L74">
-        <v>0.19373</v>
+        <v>0.18262</v>
       </c>
       <c r="M74">
         <v>0.27256</v>
@@ -4974,19 +4977,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U74" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5003,7 +5006,7 @@
         <v>54</v>
       </c>
       <c r="E75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F75">
         <v>0.11836</v>
@@ -5018,7 +5021,7 @@
         <v>0.52121</v>
       </c>
       <c r="L75">
-        <v>0.19373</v>
+        <v>0.18262</v>
       </c>
       <c r="M75">
         <v>0.27256</v>
@@ -5033,19 +5036,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U75" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5062,7 +5065,7 @@
         <v>54</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F76">
         <v>0.44415</v>
@@ -5077,7 +5080,7 @@
         <v>0.9725</v>
       </c>
       <c r="L76">
-        <v>0.1545</v>
+        <v>0.2225</v>
       </c>
       <c r="M76">
         <v>0.7896</v>
@@ -5092,19 +5095,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5121,7 +5124,7 @@
         <v>54</v>
       </c>
       <c r="E77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F77">
         <v>0.44415</v>
@@ -5136,7 +5139,7 @@
         <v>0.9725</v>
       </c>
       <c r="L77">
-        <v>0.1545</v>
+        <v>0.2225</v>
       </c>
       <c r="M77">
         <v>0.7896</v>
@@ -5151,19 +5154,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5180,7 +5183,7 @@
         <v>54</v>
       </c>
       <c r="E78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F78">
         <v>3.37</v>
@@ -5195,7 +5198,7 @@
         <v>8.26</v>
       </c>
       <c r="L78">
-        <v>3.185</v>
+        <v>3.37</v>
       </c>
       <c r="M78">
         <v>7.0665</v>
@@ -5210,16 +5213,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5233,7 +5236,7 @@
         <v>54</v>
       </c>
       <c r="E79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F79">
         <v>0.705</v>
@@ -5248,7 +5251,7 @@
         <v>1.105</v>
       </c>
       <c r="L79">
-        <v>0.5277500000000001</v>
+        <v>0.59775</v>
       </c>
       <c r="M79">
         <v>0.99</v>
@@ -5263,19 +5266,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R79" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5289,7 +5292,7 @@
         <v>54</v>
       </c>
       <c r="E80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F80">
         <v>0.705</v>
@@ -5304,7 +5307,7 @@
         <v>1.105</v>
       </c>
       <c r="L80">
-        <v>0.5277500000000001</v>
+        <v>0.59775</v>
       </c>
       <c r="M80">
         <v>0.99</v>
@@ -5319,19 +5322,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R80" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U80" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5345,7 +5348,7 @@
         <v>54</v>
       </c>
       <c r="E81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F81">
         <v>0.976</v>
@@ -5360,7 +5363,7 @@
         <v>1.595</v>
       </c>
       <c r="L81">
-        <v>0.804</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M81">
         <v>1.289</v>
@@ -5375,19 +5378,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R81" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U81" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5401,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="E82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F82">
         <v>0.976</v>
@@ -5416,7 +5419,7 @@
         <v>1.595</v>
       </c>
       <c r="L82">
-        <v>0.804</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M82">
         <v>1.289</v>
@@ -5431,19 +5434,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U82" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5457,7 +5460,7 @@
         <v>54</v>
       </c>
       <c r="E83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F83">
         <v>0.061</v>
@@ -5472,7 +5475,7 @@
         <v>0.3165</v>
       </c>
       <c r="L83">
-        <v>0.048</v>
+        <v>0.053</v>
       </c>
       <c r="M83">
         <v>0.1302</v>
@@ -5487,19 +5490,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5513,7 +5516,7 @@
         <v>54</v>
       </c>
       <c r="E84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F84">
         <v>0.061</v>
@@ -5528,7 +5531,7 @@
         <v>0.3165</v>
       </c>
       <c r="L84">
-        <v>0.048</v>
+        <v>0.053</v>
       </c>
       <c r="M84">
         <v>0.1302</v>
@@ -5543,19 +5546,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5572,7 +5575,7 @@
         <v>55</v>
       </c>
       <c r="E85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F85">
         <v>0.282</v>
@@ -5587,7 +5590,7 @@
         <v>0.667</v>
       </c>
       <c r="L85">
-        <v>0.2665</v>
+        <v>0.282</v>
       </c>
       <c r="M85">
         <v>0.54835</v>
@@ -5602,16 +5605,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5628,7 +5631,7 @@
         <v>55</v>
       </c>
       <c r="E86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F86">
         <v>35.5</v>
@@ -5643,7 +5646,7 @@
         <v>249</v>
       </c>
       <c r="L86">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="M86">
         <v>140.4</v>
@@ -5658,19 +5661,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5687,13 +5690,13 @@
         <v>55</v>
       </c>
       <c r="E87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F87">
         <v>0.645</v>
       </c>
       <c r="G87">
-        <v>0.866852384785111</v>
+        <v>0.86679063761353</v>
       </c>
       <c r="H87">
         <v>3.5</v>
@@ -5702,7 +5705,7 @@
         <v>2.184</v>
       </c>
       <c r="L87">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M87">
         <v>1.712</v>
@@ -5717,19 +5720,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5746,7 +5749,7 @@
         <v>55</v>
       </c>
       <c r="E88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F88">
         <v>0.0225</v>
@@ -5761,7 +5764,7 @@
         <v>0.0492</v>
       </c>
       <c r="L88">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="M88">
         <v>0.03592</v>
@@ -5776,19 +5779,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U88" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5805,7 +5808,7 @@
         <v>55</v>
       </c>
       <c r="E89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F89">
         <v>0.0225</v>
@@ -5820,7 +5823,7 @@
         <v>0.0492</v>
       </c>
       <c r="L89">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="M89">
         <v>0.03592</v>
@@ -5835,19 +5838,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U89" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5864,16 +5867,16 @@
         <v>55</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F90">
         <v>360</v>
       </c>
       <c r="G90">
-        <v>1252.43554605956</v>
+        <v>1332.08621205773</v>
       </c>
       <c r="H90">
-        <v>12429.216217593</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I90">
         <v>6955</v>
@@ -5885,7 +5888,7 @@
         <v>59.6491228070175</v>
       </c>
       <c r="L90">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="M90">
         <v>1681</v>
@@ -5900,19 +5903,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U90" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5929,16 +5932,16 @@
         <v>55</v>
       </c>
       <c r="E91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F91">
         <v>360</v>
       </c>
       <c r="G91">
-        <v>1252.43554605956</v>
+        <v>1332.08621205773</v>
       </c>
       <c r="H91">
-        <v>12429.216217593</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I91">
         <v>6955</v>
@@ -5950,7 +5953,7 @@
         <v>59.6491228070175</v>
       </c>
       <c r="L91">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="M91">
         <v>1681</v>
@@ -5965,19 +5968,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R91" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U91" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -5994,16 +5997,16 @@
         <v>55</v>
       </c>
       <c r="E92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F92">
         <v>360</v>
       </c>
       <c r="G92">
-        <v>1252.43554605956</v>
+        <v>1332.08621205773</v>
       </c>
       <c r="H92">
-        <v>12429.216217593</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I92">
         <v>6955</v>
@@ -6015,7 +6018,7 @@
         <v>59.6491228070175</v>
       </c>
       <c r="L92">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="M92">
         <v>1681</v>
@@ -6030,19 +6033,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R92" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U92" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6059,16 +6062,16 @@
         <v>55</v>
       </c>
       <c r="E93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F93">
         <v>360</v>
       </c>
       <c r="G93">
-        <v>1252.43554605956</v>
+        <v>1332.08621205773</v>
       </c>
       <c r="H93">
-        <v>12429.216217593</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I93">
         <v>6955</v>
@@ -6080,7 +6083,7 @@
         <v>59.6491228070175</v>
       </c>
       <c r="L93">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="M93">
         <v>1681</v>
@@ -6095,19 +6098,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R93" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U93" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6124,7 +6127,7 @@
         <v>55</v>
       </c>
       <c r="E94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F94">
         <v>88</v>
@@ -6139,7 +6142,7 @@
         <v>134</v>
       </c>
       <c r="L94">
-        <v>84.5</v>
+        <v>88</v>
       </c>
       <c r="M94">
         <v>118.061</v>
@@ -6154,16 +6157,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R94" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6180,7 +6183,7 @@
         <v>55</v>
       </c>
       <c r="E95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F95">
         <v>0.13248</v>
@@ -6195,7 +6198,7 @@
         <v>0.53422</v>
       </c>
       <c r="L95">
-        <v>0.21262</v>
+        <v>0.20318</v>
       </c>
       <c r="M95">
         <v>0.31026</v>
@@ -6210,19 +6213,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U95" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6239,7 +6242,7 @@
         <v>55</v>
       </c>
       <c r="E96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F96">
         <v>0.13248</v>
@@ -6254,7 +6257,7 @@
         <v>0.53422</v>
       </c>
       <c r="L96">
-        <v>0.21262</v>
+        <v>0.20318</v>
       </c>
       <c r="M96">
         <v>0.31026</v>
@@ -6269,19 +6272,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U96" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6298,7 +6301,7 @@
         <v>55</v>
       </c>
       <c r="E97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F97">
         <v>0.4125</v>
@@ -6313,7 +6316,7 @@
         <v>0.9764</v>
       </c>
       <c r="L97">
-        <v>0.174</v>
+        <v>0.218</v>
       </c>
       <c r="M97">
         <v>0.79028</v>
@@ -6328,19 +6331,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R97" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U97" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6357,7 +6360,7 @@
         <v>55</v>
       </c>
       <c r="E98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F98">
         <v>0.4125</v>
@@ -6372,7 +6375,7 @@
         <v>0.9764</v>
       </c>
       <c r="L98">
-        <v>0.174</v>
+        <v>0.218</v>
       </c>
       <c r="M98">
         <v>0.79028</v>
@@ -6387,19 +6390,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q98" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6416,7 +6419,7 @@
         <v>55</v>
       </c>
       <c r="E99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F99">
         <v>3.37</v>
@@ -6431,7 +6434,7 @@
         <v>8.26</v>
       </c>
       <c r="L99">
-        <v>3.2165</v>
+        <v>3.37</v>
       </c>
       <c r="M99">
         <v>7.0665</v>
@@ -6446,16 +6449,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R99" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6469,7 +6472,7 @@
         <v>55</v>
       </c>
       <c r="E100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F100">
         <v>0.6850000000000001</v>
@@ -6484,7 +6487,7 @@
         <v>1.184</v>
       </c>
       <c r="L100">
-        <v>0.586</v>
+        <v>0.545</v>
       </c>
       <c r="M100">
         <v>1.0028</v>
@@ -6499,19 +6502,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U100" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6525,7 +6528,7 @@
         <v>55</v>
       </c>
       <c r="E101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F101">
         <v>0.6850000000000001</v>
@@ -6540,7 +6543,7 @@
         <v>1.184</v>
       </c>
       <c r="L101">
-        <v>0.586</v>
+        <v>0.545</v>
       </c>
       <c r="M101">
         <v>1.0028</v>
@@ -6555,19 +6558,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S101" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U101" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6581,7 +6584,7 @@
         <v>55</v>
       </c>
       <c r="E102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F102">
         <v>0.98</v>
@@ -6596,7 +6599,7 @@
         <v>1.596</v>
       </c>
       <c r="L102">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="M102">
         <v>1.3328</v>
@@ -6611,19 +6614,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U102" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6637,7 +6640,7 @@
         <v>55</v>
       </c>
       <c r="E103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F103">
         <v>0.98</v>
@@ -6652,7 +6655,7 @@
         <v>1.596</v>
       </c>
       <c r="L103">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="M103">
         <v>1.3328</v>
@@ -6667,19 +6670,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U103" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6693,7 +6696,7 @@
         <v>55</v>
       </c>
       <c r="E104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F104">
         <v>0.0615</v>
@@ -6708,7 +6711,7 @@
         <v>0.702</v>
       </c>
       <c r="L104">
-        <v>0.0485</v>
+        <v>0.058</v>
       </c>
       <c r="M104">
         <v>0.14376</v>
@@ -6723,19 +6726,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U104" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6749,7 +6752,7 @@
         <v>55</v>
       </c>
       <c r="E105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F105">
         <v>0.0615</v>
@@ -6764,7 +6767,7 @@
         <v>0.702</v>
       </c>
       <c r="L105">
-        <v>0.0485</v>
+        <v>0.058</v>
       </c>
       <c r="M105">
         <v>0.14376</v>
@@ -6779,19 +6782,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R105" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U105" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6808,7 +6811,7 @@
         <v>56</v>
       </c>
       <c r="E106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F106">
         <v>0.328</v>
@@ -6823,7 +6826,7 @@
         <v>0.667</v>
       </c>
       <c r="L106">
-        <v>0.305</v>
+        <v>0.328</v>
       </c>
       <c r="M106">
         <v>0.56655</v>
@@ -6838,16 +6841,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R106" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6864,7 +6867,7 @@
         <v>56</v>
       </c>
       <c r="E107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F107">
         <v>60</v>
@@ -6894,19 +6897,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R107" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6923,13 +6926,13 @@
         <v>56</v>
       </c>
       <c r="E108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F108">
         <v>0.395</v>
       </c>
       <c r="G108">
-        <v>0.7581933021766</v>
+        <v>0.758126981140459</v>
       </c>
       <c r="H108">
         <v>3.5</v>
@@ -6938,7 +6941,7 @@
         <v>2.26</v>
       </c>
       <c r="L108">
-        <v>1.19</v>
+        <v>1</v>
       </c>
       <c r="M108">
         <v>1.5724</v>
@@ -6953,19 +6956,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U108" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -6982,7 +6985,7 @@
         <v>56</v>
       </c>
       <c r="E109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F109">
         <v>0.0235</v>
@@ -6997,7 +7000,7 @@
         <v>0.0492</v>
       </c>
       <c r="L109">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="M109">
         <v>0.03364</v>
@@ -7012,19 +7015,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R109" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U109" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7041,7 +7044,7 @@
         <v>56</v>
       </c>
       <c r="E110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F110">
         <v>0.0235</v>
@@ -7056,7 +7059,7 @@
         <v>0.0492</v>
       </c>
       <c r="L110">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="M110">
         <v>0.03364</v>
@@ -7071,19 +7074,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R110" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U110" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7100,19 +7103,19 @@
         <v>56</v>
       </c>
       <c r="E111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F111">
         <v>440</v>
       </c>
       <c r="G111">
-        <v>1679.40854214275</v>
+        <v>1710.14352317095</v>
       </c>
       <c r="H111">
-        <v>12644.460776742</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I111">
-        <v>10681.89644</v>
+        <v>9801.57338</v>
       </c>
       <c r="J111">
         <v>38.5964912280702</v>
@@ -7121,7 +7124,7 @@
         <v>70.1754385964912</v>
       </c>
       <c r="L111">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M111">
         <v>2162</v>
@@ -7136,19 +7139,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R111" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S111" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T111" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U111" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7165,19 +7168,19 @@
         <v>56</v>
       </c>
       <c r="E112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F112">
         <v>440</v>
       </c>
       <c r="G112">
-        <v>1679.40854214275</v>
+        <v>1710.14352317095</v>
       </c>
       <c r="H112">
-        <v>12644.460776742</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I112">
-        <v>10681.89644</v>
+        <v>9801.57338</v>
       </c>
       <c r="J112">
         <v>38.5964912280702</v>
@@ -7186,7 +7189,7 @@
         <v>70.1754385964912</v>
       </c>
       <c r="L112">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M112">
         <v>2162</v>
@@ -7201,19 +7204,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T112" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U112" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7230,19 +7233,19 @@
         <v>56</v>
       </c>
       <c r="E113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F113">
         <v>440</v>
       </c>
       <c r="G113">
-        <v>1679.40854214275</v>
+        <v>1710.14352317095</v>
       </c>
       <c r="H113">
-        <v>12644.460776742</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I113">
-        <v>10681.89644</v>
+        <v>9801.57338</v>
       </c>
       <c r="J113">
         <v>38.5964912280702</v>
@@ -7251,7 +7254,7 @@
         <v>70.1754385964912</v>
       </c>
       <c r="L113">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M113">
         <v>2162</v>
@@ -7266,19 +7269,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R113" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S113" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T113" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U113" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7295,19 +7298,19 @@
         <v>56</v>
       </c>
       <c r="E114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F114">
         <v>440</v>
       </c>
       <c r="G114">
-        <v>1679.40854214275</v>
+        <v>1710.14352317095</v>
       </c>
       <c r="H114">
-        <v>12644.460776742</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I114">
-        <v>10681.89644</v>
+        <v>9801.57338</v>
       </c>
       <c r="J114">
         <v>38.5964912280702</v>
@@ -7316,7 +7319,7 @@
         <v>70.1754385964912</v>
       </c>
       <c r="L114">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M114">
         <v>2162</v>
@@ -7331,19 +7334,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S114" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T114" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U114" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7360,7 +7363,7 @@
         <v>56</v>
       </c>
       <c r="E115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F115">
         <v>88.45999999999999</v>
@@ -7375,7 +7378,7 @@
         <v>134</v>
       </c>
       <c r="L115">
-        <v>88.23</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="M115">
         <v>122.5655</v>
@@ -7390,16 +7393,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q115" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R115" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T115" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7416,7 +7419,7 @@
         <v>56</v>
       </c>
       <c r="E116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F116">
         <v>0.17042</v>
@@ -7431,7 +7434,7 @@
         <v>0.57656</v>
       </c>
       <c r="L116">
-        <v>0.22054</v>
+        <v>0.20318</v>
       </c>
       <c r="M116">
         <v>0.31736</v>
@@ -7446,19 +7449,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R116" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S116" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U116" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7475,7 +7478,7 @@
         <v>56</v>
       </c>
       <c r="E117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F117">
         <v>0.17042</v>
@@ -7490,7 +7493,7 @@
         <v>0.57656</v>
       </c>
       <c r="L117">
-        <v>0.22054</v>
+        <v>0.20318</v>
       </c>
       <c r="M117">
         <v>0.31736</v>
@@ -7505,19 +7508,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R117" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S117" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T117" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U117" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7534,7 +7537,7 @@
         <v>56</v>
       </c>
       <c r="E118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F118">
         <v>0.364</v>
@@ -7549,7 +7552,7 @@
         <v>0.9228</v>
       </c>
       <c r="L118">
-        <v>0.208</v>
+        <v>0.219</v>
       </c>
       <c r="M118">
         <v>0.73204</v>
@@ -7564,19 +7567,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R118" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S118" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T118" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U118" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7593,7 +7596,7 @@
         <v>56</v>
       </c>
       <c r="E119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F119">
         <v>0.364</v>
@@ -7608,7 +7611,7 @@
         <v>0.9228</v>
       </c>
       <c r="L119">
-        <v>0.208</v>
+        <v>0.219</v>
       </c>
       <c r="M119">
         <v>0.73204</v>
@@ -7623,19 +7626,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R119" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S119" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T119" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U119" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7646,13 +7649,13 @@
         <v>42</v>
       </c>
       <c r="C120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D120" t="s">
         <v>56</v>
       </c>
       <c r="E120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F120">
         <v>4.6</v>
@@ -7667,7 +7670,7 @@
         <v>8.26</v>
       </c>
       <c r="L120">
-        <v>3.8315</v>
+        <v>4.6</v>
       </c>
       <c r="M120">
         <v>7.0665</v>
@@ -7682,16 +7685,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S120" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T120" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7705,7 +7708,7 @@
         <v>56</v>
       </c>
       <c r="E121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F121">
         <v>0.6825</v>
@@ -7720,7 +7723,7 @@
         <v>1.076</v>
       </c>
       <c r="L121">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="M121">
         <v>0.9328</v>
@@ -7735,19 +7738,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S121" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T121" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U121" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7761,7 +7764,7 @@
         <v>56</v>
       </c>
       <c r="E122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F122">
         <v>0.6825</v>
@@ -7776,7 +7779,7 @@
         <v>1.076</v>
       </c>
       <c r="L122">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="M122">
         <v>0.9328</v>
@@ -7791,19 +7794,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R122" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T122" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U122" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7817,7 +7820,7 @@
         <v>56</v>
       </c>
       <c r="E123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F123">
         <v>0.975</v>
@@ -7832,7 +7835,7 @@
         <v>1.596</v>
       </c>
       <c r="L123">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="M123">
         <v>1.3228</v>
@@ -7847,19 +7850,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R123" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S123" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T123" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U123" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7873,7 +7876,7 @@
         <v>56</v>
       </c>
       <c r="E124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F124">
         <v>0.975</v>
@@ -7888,7 +7891,7 @@
         <v>1.596</v>
       </c>
       <c r="L124">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="M124">
         <v>1.3228</v>
@@ -7903,19 +7906,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S124" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T124" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U124" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7929,7 +7932,7 @@
         <v>56</v>
       </c>
       <c r="E125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F125">
         <v>0.066</v>
@@ -7944,7 +7947,7 @@
         <v>0.702</v>
       </c>
       <c r="L125">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="M125">
         <v>0.154</v>
@@ -7959,19 +7962,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q125" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R125" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S125" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T125" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U125" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -7985,7 +7988,7 @@
         <v>56</v>
       </c>
       <c r="E126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F126">
         <v>0.066</v>
@@ -8000,7 +8003,7 @@
         <v>0.702</v>
       </c>
       <c r="L126">
-        <v>0.063</v>
+        <v>0.062</v>
       </c>
       <c r="M126">
         <v>0.154</v>
@@ -8015,19 +8018,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R126" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S126" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T126" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U126" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8044,7 +8047,7 @@
         <v>57</v>
       </c>
       <c r="E127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F127">
         <v>0.282</v>
@@ -8074,16 +8077,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q127" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R127" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S127" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T127" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8100,7 +8103,7 @@
         <v>57</v>
       </c>
       <c r="E128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F128">
         <v>92.5</v>
@@ -8115,7 +8118,7 @@
         <v>275</v>
       </c>
       <c r="L128">
-        <v>125</v>
+        <v>132.5</v>
       </c>
       <c r="M128">
         <v>174</v>
@@ -8130,19 +8133,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R128" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S128" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T128" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U128" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8159,13 +8162,13 @@
         <v>57</v>
       </c>
       <c r="E129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F129">
         <v>0.32</v>
       </c>
       <c r="G129">
-        <v>0.711784455459927</v>
+        <v>0.711711366971117</v>
       </c>
       <c r="H129">
         <v>3.5</v>
@@ -8174,7 +8177,7 @@
         <v>2.3375</v>
       </c>
       <c r="L129">
-        <v>0.9350000000000001</v>
+        <v>1.065</v>
       </c>
       <c r="M129">
         <v>1.5619</v>
@@ -8189,19 +8192,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R129" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S129" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T129" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U129" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8218,7 +8221,7 @@
         <v>57</v>
       </c>
       <c r="E130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F130">
         <v>0.0225</v>
@@ -8233,7 +8236,7 @@
         <v>0.0442</v>
       </c>
       <c r="L130">
-        <v>0.0175</v>
+        <v>0.02</v>
       </c>
       <c r="M130">
         <v>0.031</v>
@@ -8248,19 +8251,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R130" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S130" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T130" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U130" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8277,7 +8280,7 @@
         <v>57</v>
       </c>
       <c r="E131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F131">
         <v>0.0225</v>
@@ -8292,7 +8295,7 @@
         <v>0.0442</v>
       </c>
       <c r="L131">
-        <v>0.0175</v>
+        <v>0.02</v>
       </c>
       <c r="M131">
         <v>0.031</v>
@@ -8307,19 +8310,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q131" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R131" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S131" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T131" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U131" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8336,19 +8339,19 @@
         <v>57</v>
       </c>
       <c r="E132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F132">
         <v>465</v>
       </c>
       <c r="G132">
-        <v>1853.09115348512</v>
+        <v>1883.28242794386</v>
       </c>
       <c r="H132">
-        <v>12644.460776742</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I132">
-        <v>10606.36594</v>
+        <v>9793.760039999999</v>
       </c>
       <c r="J132">
         <v>43.1034482758621</v>
@@ -8357,13 +8360,13 @@
         <v>70.68965517241379</v>
       </c>
       <c r="L132">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="M132">
         <v>3324</v>
       </c>
       <c r="N132">
-        <v>9121.08</v>
+        <v>9121.424000000001</v>
       </c>
       <c r="O132">
         <v>1819264.388</v>
@@ -8372,19 +8375,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R132" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S132" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T132" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8401,19 +8404,19 @@
         <v>57</v>
       </c>
       <c r="E133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F133">
         <v>465</v>
       </c>
       <c r="G133">
-        <v>1853.09115348512</v>
+        <v>1883.28242794386</v>
       </c>
       <c r="H133">
-        <v>12644.460776742</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I133">
-        <v>10606.36594</v>
+        <v>9793.760039999999</v>
       </c>
       <c r="J133">
         <v>43.1034482758621</v>
@@ -8422,13 +8425,13 @@
         <v>70.68965517241379</v>
       </c>
       <c r="L133">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="M133">
         <v>3324</v>
       </c>
       <c r="N133">
-        <v>9121.08</v>
+        <v>9121.424000000001</v>
       </c>
       <c r="O133">
         <v>1819264.388</v>
@@ -8437,19 +8440,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q133" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R133" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S133" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T133" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U133" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8466,19 +8469,19 @@
         <v>57</v>
       </c>
       <c r="E134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F134">
         <v>465</v>
       </c>
       <c r="G134">
-        <v>1853.09115348512</v>
+        <v>1883.28242794386</v>
       </c>
       <c r="H134">
-        <v>12644.460776742</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I134">
-        <v>10606.36594</v>
+        <v>9793.760039999999</v>
       </c>
       <c r="J134">
         <v>43.1034482758621</v>
@@ -8487,13 +8490,13 @@
         <v>70.68965517241379</v>
       </c>
       <c r="L134">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="M134">
         <v>3324</v>
       </c>
       <c r="N134">
-        <v>9121.08</v>
+        <v>9121.424000000001</v>
       </c>
       <c r="O134">
         <v>1819264.388</v>
@@ -8502,19 +8505,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R134" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S134" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T134" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U134" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8531,19 +8534,19 @@
         <v>57</v>
       </c>
       <c r="E135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F135">
         <v>465</v>
       </c>
       <c r="G135">
-        <v>1853.09115348512</v>
+        <v>1883.28242794386</v>
       </c>
       <c r="H135">
-        <v>12644.460776742</v>
+        <v>14545.6909925779</v>
       </c>
       <c r="I135">
-        <v>10606.36594</v>
+        <v>9793.760039999999</v>
       </c>
       <c r="J135">
         <v>43.1034482758621</v>
@@ -8552,13 +8555,13 @@
         <v>70.68965517241379</v>
       </c>
       <c r="L135">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="M135">
         <v>3324</v>
       </c>
       <c r="N135">
-        <v>9121.08</v>
+        <v>9121.424000000001</v>
       </c>
       <c r="O135">
         <v>1819264.388</v>
@@ -8567,19 +8570,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R135" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S135" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T135" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U135" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8596,7 +8599,7 @@
         <v>57</v>
       </c>
       <c r="E136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F136">
         <v>88</v>
@@ -8626,16 +8629,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S136" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T136" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8652,7 +8655,7 @@
         <v>57</v>
       </c>
       <c r="E137" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F137">
         <v>0.17042</v>
@@ -8667,7 +8670,7 @@
         <v>0.57656</v>
       </c>
       <c r="L137">
-        <v>0.19313</v>
+        <v>0.20318</v>
       </c>
       <c r="M137">
         <v>0.33087</v>
@@ -8682,19 +8685,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q137" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R137" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S137" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T137" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U137" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8711,7 +8714,7 @@
         <v>57</v>
       </c>
       <c r="E138" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F138">
         <v>0.17042</v>
@@ -8726,7 +8729,7 @@
         <v>0.57656</v>
       </c>
       <c r="L138">
-        <v>0.19313</v>
+        <v>0.20318</v>
       </c>
       <c r="M138">
         <v>0.33087</v>
@@ -8741,19 +8744,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R138" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T138" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U138" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8770,7 +8773,7 @@
         <v>57</v>
       </c>
       <c r="E139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F139">
         <v>0.3215</v>
@@ -8785,7 +8788,7 @@
         <v>0.9078000000000001</v>
       </c>
       <c r="L139">
-        <v>0.2055</v>
+        <v>0.227</v>
       </c>
       <c r="M139">
         <v>0.7442800000000001</v>
@@ -8800,19 +8803,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q139" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R139" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S139" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T139" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U139" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8829,7 +8832,7 @@
         <v>57</v>
       </c>
       <c r="E140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F140">
         <v>0.3215</v>
@@ -8844,7 +8847,7 @@
         <v>0.9078000000000001</v>
       </c>
       <c r="L140">
-        <v>0.2055</v>
+        <v>0.227</v>
       </c>
       <c r="M140">
         <v>0.7442800000000001</v>
@@ -8859,19 +8862,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q140" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R140" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S140" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T140" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U140" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8888,7 +8891,7 @@
         <v>57</v>
       </c>
       <c r="E141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F141">
         <v>3.063</v>
@@ -8918,16 +8921,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q141" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R141" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S141" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T141" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8941,7 +8944,7 @@
         <v>57</v>
       </c>
       <c r="E142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F142">
         <v>0.6525</v>
@@ -8956,7 +8959,7 @@
         <v>1.0982</v>
       </c>
       <c r="L142">
-        <v>0.615</v>
+        <v>0.577</v>
       </c>
       <c r="M142">
         <v>0.91028</v>
@@ -8971,19 +8974,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q142" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R142" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S142" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T142" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U142" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -8997,7 +9000,7 @@
         <v>57</v>
       </c>
       <c r="E143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F143">
         <v>0.6525</v>
@@ -9012,7 +9015,7 @@
         <v>1.0982</v>
       </c>
       <c r="L143">
-        <v>0.615</v>
+        <v>0.577</v>
       </c>
       <c r="M143">
         <v>0.91028</v>
@@ -9027,19 +9030,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R143" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S143" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T143" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U143" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9053,7 +9056,7 @@
         <v>57</v>
       </c>
       <c r="E144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F144">
         <v>0.92</v>
@@ -9068,7 +9071,7 @@
         <v>1.558</v>
       </c>
       <c r="L144">
-        <v>0.875</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M144">
         <v>1.3364</v>
@@ -9083,19 +9086,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q144" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R144" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S144" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T144" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U144" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9109,7 +9112,7 @@
         <v>57</v>
       </c>
       <c r="E145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F145">
         <v>0.92</v>
@@ -9124,7 +9127,7 @@
         <v>1.558</v>
       </c>
       <c r="L145">
-        <v>0.875</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M145">
         <v>1.3364</v>
@@ -9139,19 +9142,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q145" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R145" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S145" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T145" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U145" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9165,7 +9168,7 @@
         <v>57</v>
       </c>
       <c r="E146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F146">
         <v>0.067</v>
@@ -9180,7 +9183,7 @@
         <v>0.702</v>
       </c>
       <c r="L146">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="M146">
         <v>0.17032</v>
@@ -9195,19 +9198,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q146" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R146" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S146" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T146" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U146" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9221,7 +9224,7 @@
         <v>57</v>
       </c>
       <c r="E147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F147">
         <v>0.067</v>
@@ -9236,7 +9239,7 @@
         <v>0.702</v>
       </c>
       <c r="L147">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="M147">
         <v>0.17032</v>
@@ -9251,19 +9254,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q147" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R147" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S147" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T147" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U147" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9280,7 +9283,7 @@
         <v>58</v>
       </c>
       <c r="E148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F148">
         <v>0.328</v>
@@ -9310,16 +9313,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R148" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S148" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T148" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9336,13 +9339,13 @@
         <v>58</v>
       </c>
       <c r="E149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F149">
         <v>0.31</v>
       </c>
       <c r="G149">
-        <v>0.681292137337748</v>
+        <v>0.681214282208364</v>
       </c>
       <c r="H149">
         <v>3.5</v>
@@ -9351,7 +9354,7 @@
         <v>2.45</v>
       </c>
       <c r="L149">
-        <v>0.4</v>
+        <v>0.59</v>
       </c>
       <c r="M149">
         <v>1.55</v>
@@ -9366,19 +9369,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R149" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S149" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T149" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U149" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9395,7 +9398,7 @@
         <v>58</v>
       </c>
       <c r="E150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F150">
         <v>0.0225</v>
@@ -9410,7 +9413,7 @@
         <v>0.0412</v>
       </c>
       <c r="L150">
-        <v>0.0205</v>
+        <v>0.021</v>
       </c>
       <c r="M150">
         <v>0.03164</v>
@@ -9425,19 +9428,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q150" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R150" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S150" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T150" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U150" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9454,7 +9457,7 @@
         <v>58</v>
       </c>
       <c r="E151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F151">
         <v>0.0225</v>
@@ -9469,7 +9472,7 @@
         <v>0.0412</v>
       </c>
       <c r="L151">
-        <v>0.0205</v>
+        <v>0.021</v>
       </c>
       <c r="M151">
         <v>0.03164</v>
@@ -9484,19 +9487,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q151" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R151" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S151" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T151" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U151" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9513,19 +9516,19 @@
         <v>58</v>
       </c>
       <c r="E152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F152">
         <v>400</v>
       </c>
       <c r="G152">
-        <v>1453.59415132314</v>
+        <v>1405.51494368023</v>
       </c>
       <c r="H152">
-        <v>12644.460776742</v>
+        <v>9856.266733453411</v>
       </c>
       <c r="I152">
-        <v>8984.799999999999</v>
+        <v>8985.120000000001</v>
       </c>
       <c r="J152">
         <v>37.9310344827586</v>
@@ -9534,7 +9537,7 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L152">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="M152">
         <v>2128</v>
@@ -9549,19 +9552,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S152" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T152" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U152" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9578,19 +9581,19 @@
         <v>58</v>
       </c>
       <c r="E153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F153">
         <v>400</v>
       </c>
       <c r="G153">
-        <v>1453.59415132314</v>
+        <v>1405.51494368023</v>
       </c>
       <c r="H153">
-        <v>12644.460776742</v>
+        <v>9856.266733453411</v>
       </c>
       <c r="I153">
-        <v>8984.799999999999</v>
+        <v>8985.120000000001</v>
       </c>
       <c r="J153">
         <v>37.9310344827586</v>
@@ -9599,7 +9602,7 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L153">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="M153">
         <v>2128</v>
@@ -9614,19 +9617,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q153" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R153" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S153" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T153" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U153" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9643,19 +9646,19 @@
         <v>58</v>
       </c>
       <c r="E154" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F154">
         <v>400</v>
       </c>
       <c r="G154">
-        <v>1453.59415132314</v>
+        <v>1405.51494368023</v>
       </c>
       <c r="H154">
-        <v>12644.460776742</v>
+        <v>9856.266733453411</v>
       </c>
       <c r="I154">
-        <v>8984.799999999999</v>
+        <v>8985.120000000001</v>
       </c>
       <c r="J154">
         <v>37.9310344827586</v>
@@ -9664,7 +9667,7 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L154">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="M154">
         <v>2128</v>
@@ -9679,19 +9682,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q154" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R154" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S154" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T154" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U154" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9708,19 +9711,19 @@
         <v>58</v>
       </c>
       <c r="E155" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F155">
         <v>400</v>
       </c>
       <c r="G155">
-        <v>1453.59415132314</v>
+        <v>1405.51494368023</v>
       </c>
       <c r="H155">
-        <v>12644.460776742</v>
+        <v>9856.266733453411</v>
       </c>
       <c r="I155">
-        <v>8984.799999999999</v>
+        <v>8985.120000000001</v>
       </c>
       <c r="J155">
         <v>37.9310344827586</v>
@@ -9729,7 +9732,7 @@
         <v>65.51724137931031</v>
       </c>
       <c r="L155">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="M155">
         <v>2128</v>
@@ -9744,19 +9747,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q155" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R155" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S155" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T155" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U155" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9773,7 +9776,7 @@
         <v>58</v>
       </c>
       <c r="E156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F156">
         <v>83.64</v>
@@ -9803,16 +9806,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q156" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R156" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S156" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T156" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9829,7 +9832,7 @@
         <v>58</v>
       </c>
       <c r="E157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F157">
         <v>0.15942</v>
@@ -9844,7 +9847,7 @@
         <v>0.52938</v>
       </c>
       <c r="L157">
-        <v>0.17873</v>
+        <v>0.19313</v>
       </c>
       <c r="M157">
         <v>0.31521</v>
@@ -9859,19 +9862,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q157" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R157" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S157" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T157" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U157" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9888,7 +9891,7 @@
         <v>58</v>
       </c>
       <c r="E158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F158">
         <v>0.15942</v>
@@ -9903,7 +9906,7 @@
         <v>0.52938</v>
       </c>
       <c r="L158">
-        <v>0.17873</v>
+        <v>0.19313</v>
       </c>
       <c r="M158">
         <v>0.31521</v>
@@ -9918,19 +9921,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q158" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R158" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S158" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T158" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U158" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -9947,7 +9950,7 @@
         <v>58</v>
       </c>
       <c r="E159" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F159">
         <v>0.364</v>
@@ -9962,7 +9965,7 @@
         <v>0.927</v>
       </c>
       <c r="L159">
-        <v>0.2435</v>
+        <v>0.273</v>
       </c>
       <c r="M159">
         <v>0.7442800000000001</v>
@@ -9977,19 +9980,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q159" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R159" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S159" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T159" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U159" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10006,7 +10009,7 @@
         <v>58</v>
       </c>
       <c r="E160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F160">
         <v>0.364</v>
@@ -10021,7 +10024,7 @@
         <v>0.927</v>
       </c>
       <c r="L160">
-        <v>0.2435</v>
+        <v>0.273</v>
       </c>
       <c r="M160">
         <v>0.7442800000000001</v>
@@ -10036,19 +10039,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q160" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R160" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S160" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T160" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U160" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10065,7 +10068,7 @@
         <v>58</v>
       </c>
       <c r="E161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F161">
         <v>4.6</v>
@@ -10095,16 +10098,16 @@
         <v>5525304.917</v>
       </c>
       <c r="Q161" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R161" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S161" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T161" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10118,7 +10121,7 @@
         <v>58</v>
       </c>
       <c r="E162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F162">
         <v>0.6885</v>
@@ -10133,7 +10136,7 @@
         <v>1.1086</v>
       </c>
       <c r="L162">
-        <v>0.615</v>
+        <v>0.6</v>
       </c>
       <c r="M162">
         <v>0.88832</v>
@@ -10148,19 +10151,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q162" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R162" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S162" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T162" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U162" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10174,7 +10177,7 @@
         <v>58</v>
       </c>
       <c r="E163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F163">
         <v>0.6885</v>
@@ -10189,7 +10192,7 @@
         <v>1.1086</v>
       </c>
       <c r="L163">
-        <v>0.615</v>
+        <v>0.6</v>
       </c>
       <c r="M163">
         <v>0.88832</v>
@@ -10204,19 +10207,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q163" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R163" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S163" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T163" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U163" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10230,7 +10233,7 @@
         <v>58</v>
       </c>
       <c r="E164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F164">
         <v>0.925</v>
@@ -10245,7 +10248,7 @@
         <v>1.49</v>
       </c>
       <c r="L164">
-        <v>0.875</v>
+        <v>0.82</v>
       </c>
       <c r="M164">
         <v>1.2764</v>
@@ -10260,19 +10263,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R164" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S164" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T164" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U164" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10286,7 +10289,7 @@
         <v>58</v>
       </c>
       <c r="E165" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F165">
         <v>0.925</v>
@@ -10301,7 +10304,7 @@
         <v>1.49</v>
       </c>
       <c r="L165">
-        <v>0.875</v>
+        <v>0.82</v>
       </c>
       <c r="M165">
         <v>1.2764</v>
@@ -10316,19 +10319,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q165" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R165" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S165" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T165" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U165" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10342,7 +10345,7 @@
         <v>58</v>
       </c>
       <c r="E166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F166">
         <v>0.064</v>
@@ -10357,7 +10360,7 @@
         <v>0.3828</v>
       </c>
       <c r="L166">
-        <v>0.054</v>
+        <v>0.045</v>
       </c>
       <c r="M166">
         <v>0.16776</v>
@@ -10372,19 +10375,19 @@
         <v>5525304.917</v>
       </c>
       <c r="Q166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R166" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S166" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T166" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U166" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10398,7 +10401,7 @@
         <v>58</v>
       </c>
       <c r="E167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F167">
         <v>0.064</v>
@@ -10413,7 +10416,7 @@
         <v>0.3828</v>
       </c>
       <c r="L167">
-        <v>0.054</v>
+        <v>0.045</v>
       </c>
       <c r="M167">
         <v>0.16776</v>
@@ -10428,19 +10431,1196 @@
         <v>5525304.917</v>
       </c>
       <c r="Q167" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R167" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S167" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T167" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U167" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21">
+      <c r="A168" t="s">
+        <v>21</v>
+      </c>
+      <c r="B168" t="s">
+        <v>41</v>
+      </c>
+      <c r="C168" t="s">
+        <v>43</v>
+      </c>
+      <c r="D168" t="s">
+        <v>59</v>
+      </c>
+      <c r="E168" t="s">
+        <v>60</v>
+      </c>
+      <c r="F168">
+        <v>0.229</v>
+      </c>
+      <c r="G168">
+        <v>0.2538</v>
+      </c>
+      <c r="H168">
+        <v>0.38</v>
+      </c>
+      <c r="I168">
+        <v>0.38</v>
+      </c>
+      <c r="L168">
+        <v>0.229</v>
+      </c>
+      <c r="M168">
+        <v>0.3688</v>
+      </c>
+      <c r="N168">
+        <v>0.38</v>
+      </c>
+      <c r="O168">
+        <v>1819264.388</v>
+      </c>
+      <c r="P168">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>61</v>
+      </c>
+      <c r="R168" t="s">
+        <v>62</v>
+      </c>
+      <c r="S168" t="s">
+        <v>63</v>
+      </c>
+      <c r="T168" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21">
+      <c r="A169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B169" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" t="s">
+        <v>43</v>
+      </c>
+      <c r="D169" t="s">
+        <v>59</v>
+      </c>
+      <c r="E169" t="s">
+        <v>60</v>
+      </c>
+      <c r="F169">
+        <v>0.25</v>
+      </c>
+      <c r="G169">
+        <v>0.585021973886789</v>
+      </c>
+      <c r="H169">
+        <v>3.5</v>
+      </c>
+      <c r="I169">
+        <v>2.7125</v>
+      </c>
+      <c r="L169">
+        <v>0.34</v>
+      </c>
+      <c r="M169">
+        <v>1.459</v>
+      </c>
+      <c r="N169">
+        <v>2.176</v>
+      </c>
+      <c r="O169">
+        <v>1819264.388</v>
+      </c>
+      <c r="P169">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>61</v>
+      </c>
+      <c r="R169" t="s">
+        <v>62</v>
+      </c>
+      <c r="S169" t="s">
+        <v>63</v>
+      </c>
+      <c r="T169" t="s">
+        <v>64</v>
+      </c>
+      <c r="U169" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
+      <c r="A170" t="s">
+        <v>21</v>
+      </c>
+      <c r="B170" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" t="s">
+        <v>44</v>
+      </c>
+      <c r="D170" t="s">
+        <v>59</v>
+      </c>
+      <c r="E170" t="s">
+        <v>60</v>
+      </c>
+      <c r="F170">
+        <v>0.024</v>
+      </c>
+      <c r="G170">
+        <v>0.0231206896551724</v>
+      </c>
+      <c r="H170">
+        <v>0.043</v>
+      </c>
+      <c r="I170">
+        <v>0.04</v>
+      </c>
+      <c r="L170">
+        <v>0.022</v>
+      </c>
+      <c r="M170">
+        <v>0.031</v>
+      </c>
+      <c r="N170">
+        <v>0.03686</v>
+      </c>
+      <c r="O170">
+        <v>1819264.388</v>
+      </c>
+      <c r="P170">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>61</v>
+      </c>
+      <c r="R170" t="s">
+        <v>62</v>
+      </c>
+      <c r="S170" t="s">
+        <v>63</v>
+      </c>
+      <c r="T170" t="s">
+        <v>64</v>
+      </c>
+      <c r="U170" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21">
+      <c r="A171" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" t="s">
+        <v>43</v>
+      </c>
+      <c r="D171" t="s">
+        <v>59</v>
+      </c>
+      <c r="E171" t="s">
+        <v>60</v>
+      </c>
+      <c r="F171">
+        <v>0.024</v>
+      </c>
+      <c r="G171">
+        <v>0.0231206896551724</v>
+      </c>
+      <c r="H171">
+        <v>0.043</v>
+      </c>
+      <c r="I171">
+        <v>0.04</v>
+      </c>
+      <c r="L171">
+        <v>0.022</v>
+      </c>
+      <c r="M171">
+        <v>0.031</v>
+      </c>
+      <c r="N171">
+        <v>0.03686</v>
+      </c>
+      <c r="O171">
+        <v>1819264.388</v>
+      </c>
+      <c r="P171">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>61</v>
+      </c>
+      <c r="R171" t="s">
+        <v>62</v>
+      </c>
+      <c r="S171" t="s">
+        <v>63</v>
+      </c>
+      <c r="T171" t="s">
+        <v>64</v>
+      </c>
+      <c r="U171" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21">
+      <c r="A172" t="s">
+        <v>21</v>
+      </c>
+      <c r="B172" t="s">
+        <v>26</v>
+      </c>
+      <c r="C172" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" t="s">
+        <v>59</v>
+      </c>
+      <c r="E172" t="s">
+        <v>60</v>
+      </c>
+      <c r="F172">
+        <v>332.8</v>
+      </c>
+      <c r="G172">
+        <v>1811.73462761344</v>
+      </c>
+      <c r="H172">
+        <v>28596.1416681263</v>
+      </c>
+      <c r="I172">
+        <v>9691.360000000001</v>
+      </c>
+      <c r="J172">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K172">
+        <v>55.1724137931034</v>
+      </c>
+      <c r="L172">
+        <v>160</v>
+      </c>
+      <c r="M172">
+        <v>2128</v>
+      </c>
+      <c r="N172">
+        <v>7630.872</v>
+      </c>
+      <c r="O172">
+        <v>1819264.388</v>
+      </c>
+      <c r="P172">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>61</v>
+      </c>
+      <c r="R172" t="s">
+        <v>62</v>
+      </c>
+      <c r="S172" t="s">
+        <v>63</v>
+      </c>
+      <c r="T172" t="s">
+        <v>64</v>
+      </c>
+      <c r="U172" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21">
+      <c r="A173" t="s">
+        <v>21</v>
+      </c>
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" t="s">
+        <v>45</v>
+      </c>
+      <c r="D173" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" t="s">
+        <v>60</v>
+      </c>
+      <c r="F173">
+        <v>332.8</v>
+      </c>
+      <c r="G173">
+        <v>1811.73462761344</v>
+      </c>
+      <c r="H173">
+        <v>28596.1416681263</v>
+      </c>
+      <c r="I173">
+        <v>9691.360000000001</v>
+      </c>
+      <c r="J173">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K173">
+        <v>55.1724137931034</v>
+      </c>
+      <c r="L173">
+        <v>160</v>
+      </c>
+      <c r="M173">
+        <v>2128</v>
+      </c>
+      <c r="N173">
+        <v>7630.872</v>
+      </c>
+      <c r="O173">
+        <v>1819264.388</v>
+      </c>
+      <c r="P173">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>61</v>
+      </c>
+      <c r="R173" t="s">
+        <v>62</v>
+      </c>
+      <c r="S173" t="s">
+        <v>63</v>
+      </c>
+      <c r="T173" t="s">
+        <v>64</v>
+      </c>
+      <c r="U173" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
+      <c r="A174" t="s">
+        <v>21</v>
+      </c>
+      <c r="B174" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" t="s">
+        <v>45</v>
+      </c>
+      <c r="D174" t="s">
+        <v>59</v>
+      </c>
+      <c r="E174" t="s">
+        <v>60</v>
+      </c>
+      <c r="F174">
+        <v>332.8</v>
+      </c>
+      <c r="G174">
+        <v>1811.73462761344</v>
+      </c>
+      <c r="H174">
+        <v>28596.1416681263</v>
+      </c>
+      <c r="I174">
+        <v>9691.360000000001</v>
+      </c>
+      <c r="J174">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K174">
+        <v>55.1724137931034</v>
+      </c>
+      <c r="L174">
+        <v>160</v>
+      </c>
+      <c r="M174">
+        <v>2128</v>
+      </c>
+      <c r="N174">
+        <v>7630.872</v>
+      </c>
+      <c r="O174">
+        <v>1819264.388</v>
+      </c>
+      <c r="P174">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>61</v>
+      </c>
+      <c r="R174" t="s">
+        <v>62</v>
+      </c>
+      <c r="S174" t="s">
+        <v>63</v>
+      </c>
+      <c r="T174" t="s">
+        <v>64</v>
+      </c>
+      <c r="U174" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
+      <c r="A175" t="s">
+        <v>21</v>
+      </c>
+      <c r="B175" t="s">
+        <v>29</v>
+      </c>
+      <c r="C175" t="s">
+        <v>45</v>
+      </c>
+      <c r="D175" t="s">
+        <v>59</v>
+      </c>
+      <c r="E175" t="s">
+        <v>60</v>
+      </c>
+      <c r="F175">
+        <v>332.8</v>
+      </c>
+      <c r="G175">
+        <v>1811.73462761344</v>
+      </c>
+      <c r="H175">
+        <v>28596.1416681263</v>
+      </c>
+      <c r="I175">
+        <v>9691.360000000001</v>
+      </c>
+      <c r="J175">
+        <v>36.2068965517241</v>
+      </c>
+      <c r="K175">
+        <v>55.1724137931034</v>
+      </c>
+      <c r="L175">
+        <v>160</v>
+      </c>
+      <c r="M175">
+        <v>2128</v>
+      </c>
+      <c r="N175">
+        <v>7630.872</v>
+      </c>
+      <c r="O175">
+        <v>1819264.388</v>
+      </c>
+      <c r="P175">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>61</v>
+      </c>
+      <c r="R175" t="s">
+        <v>62</v>
+      </c>
+      <c r="S175" t="s">
+        <v>63</v>
+      </c>
+      <c r="T175" t="s">
+        <v>64</v>
+      </c>
+      <c r="U175" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
+      <c r="A176" t="s">
+        <v>21</v>
+      </c>
+      <c r="B176" t="s">
+        <v>30</v>
+      </c>
+      <c r="C176" t="s">
+        <v>43</v>
+      </c>
+      <c r="D176" t="s">
+        <v>59</v>
+      </c>
+      <c r="E176" t="s">
+        <v>60</v>
+      </c>
+      <c r="F176">
+        <v>83.64</v>
+      </c>
+      <c r="G176">
+        <v>83.85599999999999</v>
+      </c>
+      <c r="H176">
+        <v>101.33</v>
+      </c>
+      <c r="I176">
+        <v>101.33</v>
+      </c>
+      <c r="L176">
+        <v>83.64</v>
+      </c>
+      <c r="M176">
+        <v>96.6645</v>
+      </c>
+      <c r="N176">
+        <v>101.33</v>
+      </c>
+      <c r="O176">
+        <v>1819264.388</v>
+      </c>
+      <c r="P176">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>61</v>
+      </c>
+      <c r="R176" t="s">
+        <v>62</v>
+      </c>
+      <c r="S176" t="s">
+        <v>63</v>
+      </c>
+      <c r="T176" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21">
+      <c r="A177" t="s">
+        <v>21</v>
+      </c>
+      <c r="B177" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" t="s">
+        <v>44</v>
+      </c>
+      <c r="D177" t="s">
+        <v>59</v>
+      </c>
+      <c r="E177" t="s">
+        <v>60</v>
+      </c>
+      <c r="F177">
+        <v>0.14764</v>
+      </c>
+      <c r="G177">
+        <v>0.218006174685827</v>
+      </c>
+      <c r="H177">
+        <v>1.4728717139769</v>
+      </c>
+      <c r="I177">
+        <v>0.59379</v>
+      </c>
+      <c r="L177">
+        <v>0.20385</v>
+      </c>
+      <c r="M177">
+        <v>0.33763</v>
+      </c>
+      <c r="N177">
+        <v>0.54888</v>
+      </c>
+      <c r="O177">
+        <v>1819264.388</v>
+      </c>
+      <c r="P177">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>61</v>
+      </c>
+      <c r="R177" t="s">
+        <v>62</v>
+      </c>
+      <c r="S177" t="s">
+        <v>63</v>
+      </c>
+      <c r="T177" t="s">
+        <v>64</v>
+      </c>
+      <c r="U177" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
+      <c r="A178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B178" t="s">
+        <v>32</v>
+      </c>
+      <c r="C178" t="s">
+        <v>46</v>
+      </c>
+      <c r="D178" t="s">
+        <v>59</v>
+      </c>
+      <c r="E178" t="s">
+        <v>60</v>
+      </c>
+      <c r="F178">
+        <v>0.14764</v>
+      </c>
+      <c r="G178">
+        <v>0.218006174685827</v>
+      </c>
+      <c r="H178">
+        <v>1.4728717139769</v>
+      </c>
+      <c r="I178">
+        <v>0.59379</v>
+      </c>
+      <c r="L178">
+        <v>0.20385</v>
+      </c>
+      <c r="M178">
+        <v>0.33763</v>
+      </c>
+      <c r="N178">
+        <v>0.54888</v>
+      </c>
+      <c r="O178">
+        <v>1819264.388</v>
+      </c>
+      <c r="P178">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>61</v>
+      </c>
+      <c r="R178" t="s">
+        <v>62</v>
+      </c>
+      <c r="S178" t="s">
+        <v>63</v>
+      </c>
+      <c r="T178" t="s">
+        <v>64</v>
+      </c>
+      <c r="U178" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21">
+      <c r="A179" t="s">
+        <v>21</v>
+      </c>
+      <c r="B179" t="s">
+        <v>33</v>
+      </c>
+      <c r="C179" t="s">
+        <v>47</v>
+      </c>
+      <c r="D179" t="s">
+        <v>59</v>
+      </c>
+      <c r="E179" t="s">
+        <v>60</v>
+      </c>
+      <c r="F179">
+        <v>0.3105</v>
+      </c>
+      <c r="G179">
+        <v>0.407224137931034</v>
+      </c>
+      <c r="H179">
+        <v>1.06</v>
+      </c>
+      <c r="I179">
+        <v>0.9258</v>
+      </c>
+      <c r="L179">
+        <v>0.265</v>
+      </c>
+      <c r="M179">
+        <v>0.6654</v>
+      </c>
+      <c r="N179">
+        <v>0.84168</v>
+      </c>
+      <c r="O179">
+        <v>1819264.388</v>
+      </c>
+      <c r="P179">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>61</v>
+      </c>
+      <c r="R179" t="s">
+        <v>62</v>
+      </c>
+      <c r="S179" t="s">
+        <v>63</v>
+      </c>
+      <c r="T179" t="s">
+        <v>64</v>
+      </c>
+      <c r="U179" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
+      <c r="A180" t="s">
+        <v>21</v>
+      </c>
+      <c r="B180" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" t="s">
+        <v>47</v>
+      </c>
+      <c r="D180" t="s">
+        <v>59</v>
+      </c>
+      <c r="E180" t="s">
+        <v>60</v>
+      </c>
+      <c r="F180">
+        <v>0.3105</v>
+      </c>
+      <c r="G180">
+        <v>0.407224137931034</v>
+      </c>
+      <c r="H180">
+        <v>1.06</v>
+      </c>
+      <c r="I180">
+        <v>0.9258</v>
+      </c>
+      <c r="L180">
+        <v>0.265</v>
+      </c>
+      <c r="M180">
+        <v>0.6654</v>
+      </c>
+      <c r="N180">
+        <v>0.84168</v>
+      </c>
+      <c r="O180">
+        <v>1819264.388</v>
+      </c>
+      <c r="P180">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>61</v>
+      </c>
+      <c r="R180" t="s">
+        <v>62</v>
+      </c>
+      <c r="S180" t="s">
+        <v>63</v>
+      </c>
+      <c r="T180" t="s">
+        <v>64</v>
+      </c>
+      <c r="U180" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
+      <c r="A181" t="s">
+        <v>21</v>
+      </c>
+      <c r="B181" t="s">
+        <v>42</v>
+      </c>
+      <c r="C181" t="s">
+        <v>43</v>
+      </c>
+      <c r="D181" t="s">
+        <v>59</v>
+      </c>
+      <c r="E181" t="s">
+        <v>60</v>
+      </c>
+      <c r="F181">
+        <v>3.063</v>
+      </c>
+      <c r="G181">
+        <v>3.7226</v>
+      </c>
+      <c r="H181">
+        <v>6.187</v>
+      </c>
+      <c r="I181">
+        <v>6.187</v>
+      </c>
+      <c r="L181">
+        <v>3.063</v>
+      </c>
+      <c r="M181">
+        <v>5.63155</v>
+      </c>
+      <c r="N181">
+        <v>6.187</v>
+      </c>
+      <c r="O181">
+        <v>1819264.388</v>
+      </c>
+      <c r="P181">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>61</v>
+      </c>
+      <c r="R181" t="s">
+        <v>62</v>
+      </c>
+      <c r="S181" t="s">
+        <v>63</v>
+      </c>
+      <c r="T181" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
+      <c r="A182" t="s">
+        <v>21</v>
+      </c>
+      <c r="B182" t="s">
+        <v>35</v>
+      </c>
+      <c r="D182" t="s">
+        <v>59</v>
+      </c>
+      <c r="E182" t="s">
+        <v>60</v>
+      </c>
+      <c r="F182">
+        <v>0.634</v>
+      </c>
+      <c r="G182">
+        <v>0.675465517241379</v>
+      </c>
+      <c r="H182">
+        <v>1.22</v>
+      </c>
+      <c r="I182">
+        <v>1.1086</v>
+      </c>
+      <c r="L182">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="M182">
+        <v>0.86876</v>
+      </c>
+      <c r="N182">
+        <v>1.00176</v>
+      </c>
+      <c r="O182">
+        <v>1819264.388</v>
+      </c>
+      <c r="P182">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>61</v>
+      </c>
+      <c r="R182" t="s">
+        <v>62</v>
+      </c>
+      <c r="S182" t="s">
+        <v>63</v>
+      </c>
+      <c r="T182" t="s">
+        <v>64</v>
+      </c>
+      <c r="U182" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
+      <c r="A183" t="s">
+        <v>21</v>
+      </c>
+      <c r="B183" t="s">
+        <v>36</v>
+      </c>
+      <c r="D183" t="s">
+        <v>59</v>
+      </c>
+      <c r="E183" t="s">
+        <v>60</v>
+      </c>
+      <c r="F183">
+        <v>0.634</v>
+      </c>
+      <c r="G183">
+        <v>0.675465517241379</v>
+      </c>
+      <c r="H183">
+        <v>1.22</v>
+      </c>
+      <c r="I183">
+        <v>1.1086</v>
+      </c>
+      <c r="L183">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="M183">
+        <v>0.86876</v>
+      </c>
+      <c r="N183">
+        <v>1.00176</v>
+      </c>
+      <c r="O183">
+        <v>1819264.388</v>
+      </c>
+      <c r="P183">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>61</v>
+      </c>
+      <c r="R183" t="s">
+        <v>62</v>
+      </c>
+      <c r="S183" t="s">
+        <v>63</v>
+      </c>
+      <c r="T183" t="s">
+        <v>64</v>
+      </c>
+      <c r="U183" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>37</v>
+      </c>
+      <c r="D184" t="s">
+        <v>59</v>
+      </c>
+      <c r="E184" t="s">
+        <v>60</v>
+      </c>
+      <c r="F184">
+        <v>0.93</v>
+      </c>
+      <c r="G184">
+        <v>0.98448275862069</v>
+      </c>
+      <c r="H184">
+        <v>1.81</v>
+      </c>
+      <c r="I184">
+        <v>1.49</v>
+      </c>
+      <c r="L184">
+        <v>0.82</v>
+      </c>
+      <c r="M184">
+        <v>1.2728</v>
+      </c>
+      <c r="N184">
+        <v>1.4272</v>
+      </c>
+      <c r="O184">
+        <v>1819264.388</v>
+      </c>
+      <c r="P184">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>61</v>
+      </c>
+      <c r="R184" t="s">
+        <v>62</v>
+      </c>
+      <c r="S184" t="s">
+        <v>63</v>
+      </c>
+      <c r="T184" t="s">
+        <v>64</v>
+      </c>
+      <c r="U184" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>38</v>
+      </c>
+      <c r="D185" t="s">
+        <v>59</v>
+      </c>
+      <c r="E185" t="s">
+        <v>60</v>
+      </c>
+      <c r="F185">
+        <v>0.93</v>
+      </c>
+      <c r="G185">
+        <v>0.98448275862069</v>
+      </c>
+      <c r="H185">
+        <v>1.81</v>
+      </c>
+      <c r="I185">
+        <v>1.49</v>
+      </c>
+      <c r="L185">
+        <v>0.82</v>
+      </c>
+      <c r="M185">
+        <v>1.2728</v>
+      </c>
+      <c r="N185">
+        <v>1.4272</v>
+      </c>
+      <c r="O185">
+        <v>1819264.388</v>
+      </c>
+      <c r="P185">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>61</v>
+      </c>
+      <c r="R185" t="s">
+        <v>62</v>
+      </c>
+      <c r="S185" t="s">
+        <v>63</v>
+      </c>
+      <c r="T185" t="s">
+        <v>64</v>
+      </c>
+      <c r="U185" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>39</v>
+      </c>
+      <c r="D186" t="s">
+        <v>59</v>
+      </c>
+      <c r="E186" t="s">
+        <v>60</v>
+      </c>
+      <c r="F186">
+        <v>0.061</v>
+      </c>
+      <c r="G186">
+        <v>0.118224137931034</v>
+      </c>
+      <c r="H186">
+        <v>0.969</v>
+      </c>
+      <c r="I186">
+        <v>0.4106</v>
+      </c>
+      <c r="L186">
+        <v>0.045</v>
+      </c>
+      <c r="M186">
+        <v>0.17356</v>
+      </c>
+      <c r="N186">
+        <v>0.34288</v>
+      </c>
+      <c r="O186">
+        <v>1819264.388</v>
+      </c>
+      <c r="P186">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>61</v>
+      </c>
+      <c r="R186" t="s">
+        <v>62</v>
+      </c>
+      <c r="S186" t="s">
+        <v>63</v>
+      </c>
+      <c r="T186" t="s">
+        <v>64</v>
+      </c>
+      <c r="U186" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>40</v>
+      </c>
+      <c r="D187" t="s">
+        <v>59</v>
+      </c>
+      <c r="E187" t="s">
+        <v>60</v>
+      </c>
+      <c r="F187">
+        <v>0.061</v>
+      </c>
+      <c r="G187">
+        <v>0.118224137931034</v>
+      </c>
+      <c r="H187">
+        <v>0.969</v>
+      </c>
+      <c r="I187">
+        <v>0.4106</v>
+      </c>
+      <c r="L187">
+        <v>0.045</v>
+      </c>
+      <c r="M187">
+        <v>0.17356</v>
+      </c>
+      <c r="N187">
+        <v>0.34288</v>
+      </c>
+      <c r="O187">
+        <v>1819264.388</v>
+      </c>
+      <c r="P187">
+        <v>5525304.917</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>61</v>
+      </c>
+      <c r="R187" t="s">
+        <v>62</v>
+      </c>
+      <c r="S187" t="s">
+        <v>63</v>
+      </c>
+      <c r="T187" t="s">
+        <v>64</v>
+      </c>
+      <c r="U187" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
